--- a/Data/TABLE_S3_COM3.xlsx
+++ b/Data/TABLE_S3_COM3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80821784\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC09E54B-9EA2-4E33-AF16-F482A2BADFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B80153-4594-4092-BAF6-76BBBBDEFBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,9 +609,6 @@
     <t>NR_077096</t>
   </si>
   <si>
-    <t>Sporidiobolales; Sporidiobolaceae</t>
-  </si>
-  <si>
     <t>10G11C6</t>
   </si>
   <si>
@@ -709,9 +706,6 @@
   </si>
   <si>
     <t>Curvibasidium pallidicorallinum</t>
-  </si>
-  <si>
-    <t>Dipodascaceae sp.</t>
   </si>
   <si>
     <t>Irpex latemarginatus</t>
@@ -4464,10 +4458,34 @@
     <t>Agaricmycotina; Agaricales; Schyzophyllaceae</t>
   </si>
   <si>
-    <t>Peziomycotina; Sordariomycetes ?</t>
-  </si>
-  <si>
     <t>Subphylum; order; family (after Mycobank)</t>
+  </si>
+  <si>
+    <t>Peziomycotina; Sordariomycetes; ?</t>
+  </si>
+  <si>
+    <t>Sporidiobolales; Sporidiobolaceae;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Dipodascaceae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sp.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4631,7 +4649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4648,9 +4666,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4660,20 +4675,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4690,36 +4693,47 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -5125,6 +5139,25 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -5151,24 +5184,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A2:L141" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A2:L141" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A2:L141" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L141">
     <sortCondition ref="A2:A141"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sequences 16S or ITS named after verification in Mycobank/Index Fungorum of the name(s) obtained by sequence similarity searches in GenBank." dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="A    heal   S     pulp + skin" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="B    heal US     skin" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="C    sour rot US skin" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="D     Dros                     US     flies" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Taxon authorities at genus or species rank depending on the the resolution power of ITS to assign taxon name(s)" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Fungi isolates number" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Genbank accessions for fungal sequences" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="BLAST top score sequence(s) in GB" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="BLAST top score sequence similarity (%)" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="BLAST top score sequence query coverage (%)" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Subphylum; order; family (after Mycobank)" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sequences 16S or ITS named after verification in Mycobank/Index Fungorum of the name(s) obtained by sequence similarity searches in GenBank." dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="A    heal   S     pulp + skin" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="B    heal US     skin" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="C    sour rot US skin" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="D     Dros                     US     flies" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Taxon authorities at genus or species rank depending on the the resolution power of ITS to assign taxon name(s)" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Fungi isolates number" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Genbank accessions for fungal sequences" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="BLAST top score sequence(s) in GB" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="BLAST top score sequence similarity (%)" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="BLAST top score sequence query coverage (%)" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Subphylum; order; family (after Mycobank)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5494,7 +5527,7 @@
   <dimension ref="A1:AO141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E139" sqref="B3:E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -5511,48 +5544,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.95" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="99" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>416</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>0</v>
@@ -5561,2755 +5594,2755 @@
         <v>1</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.95" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="20">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21">
+        <v>75</v>
+      </c>
+      <c r="D3" s="20">
+        <v>21</v>
+      </c>
+      <c r="E3" s="20">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="J3" s="10">
+        <v>100</v>
+      </c>
+      <c r="K3" s="10">
+        <v>100</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.05" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="J4" s="10">
+        <v>100</v>
+      </c>
+      <c r="K4" s="10">
+        <v>100</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="10">
+        <v>100</v>
+      </c>
+      <c r="K5" s="10">
+        <v>100</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="20">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="J6" s="10">
+        <v>100</v>
+      </c>
+      <c r="K6" s="10">
+        <v>100</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J7" s="10">
+        <v>100</v>
+      </c>
+      <c r="K7" s="10">
+        <v>100</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="20">
+        <v>8</v>
+      </c>
+      <c r="C8" s="21">
+        <v>31</v>
+      </c>
+      <c r="D8" s="20">
+        <v>18</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="10">
+        <v>100</v>
+      </c>
+      <c r="K8" s="10">
+        <v>75</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="20">
+        <v>2</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="10">
+        <v>99.63</v>
+      </c>
+      <c r="K9" s="10">
+        <v>100</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="10">
+        <v>100</v>
+      </c>
+      <c r="K10" s="10">
+        <v>100</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20">
+        <v>24</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="10">
+        <v>100</v>
+      </c>
+      <c r="K11" s="10">
+        <v>100</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1">
+      <c r="A12" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="20">
+        <v>2</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J12" s="10">
+        <v>100</v>
+      </c>
+      <c r="K12" s="10">
+        <v>100</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="20">
+        <v>5</v>
+      </c>
+      <c r="E13" s="20">
+        <v>2</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="10">
+        <v>100</v>
+      </c>
+      <c r="K13" s="10">
+        <v>100</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="20">
+        <v>3</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="10">
+        <v>100</v>
+      </c>
+      <c r="K14" s="10">
+        <v>100</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="10">
+        <v>100</v>
+      </c>
+      <c r="K15" s="10">
+        <v>100</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" s="20">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21">
+        <v>16</v>
+      </c>
+      <c r="D16" s="20">
+        <v>4</v>
+      </c>
+      <c r="E16" s="20">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="10">
+        <v>100</v>
+      </c>
+      <c r="K16" s="10">
+        <v>100</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="34.950000000000003" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="J17" s="10">
+        <v>100</v>
+      </c>
+      <c r="K17" s="10">
+        <v>100</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="34.049999999999997" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21">
+        <v>2</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="J18" s="10">
+        <v>100</v>
+      </c>
+      <c r="K18" s="10">
+        <v>100</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="20">
+        <v>1</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="10">
+        <v>99.8</v>
+      </c>
+      <c r="K19" s="10">
+        <v>100</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="24">
+        <v>5</v>
+      </c>
+      <c r="D20" s="20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="J20" s="10">
+        <v>100</v>
+      </c>
+      <c r="K20" s="10">
+        <v>100</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="10">
+        <v>100</v>
+      </c>
+      <c r="K21" s="10">
+        <v>100</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" s="20">
+        <v>1</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="J22" s="10">
+        <v>100</v>
+      </c>
+      <c r="K22" s="10">
+        <v>100</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="20">
+        <v>1</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="10">
+        <v>100</v>
+      </c>
+      <c r="K23" s="10">
+        <v>100</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="20">
+        <v>1</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J24" s="10">
+        <v>100</v>
+      </c>
+      <c r="K24" s="10">
+        <v>100</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="19" customFormat="1">
+      <c r="A25" s="19" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.95" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20">
+        <v>1</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="19">
+        <v>97.22</v>
+      </c>
+      <c r="K25" s="19">
+        <v>100</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21">
+        <v>2</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="10">
+        <v>100</v>
+      </c>
+      <c r="K26" s="10">
+        <v>100</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21">
+        <v>4</v>
+      </c>
+      <c r="D27" s="20">
+        <v>1</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="J27" s="10">
+        <v>100</v>
+      </c>
+      <c r="K27" s="10">
+        <v>100</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.95" customHeight="1">
+      <c r="A28" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21">
+        <v>7</v>
+      </c>
+      <c r="D28" s="20">
+        <v>1</v>
+      </c>
+      <c r="E28" s="20">
+        <v>13</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.95" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="20">
+        <v>1</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J29" s="10">
+        <v>100</v>
+      </c>
+      <c r="K29" s="10">
+        <v>100</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="34.049999999999997" customHeight="1">
+      <c r="A30" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21">
+        <v>1</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="J30" s="10">
+        <v>100</v>
+      </c>
+      <c r="K30" s="10">
+        <v>100</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="10">
+        <v>100</v>
+      </c>
+      <c r="K31" s="10">
+        <v>100</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="20">
+        <v>5</v>
+      </c>
+      <c r="E32" s="20">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="10">
+        <v>100</v>
+      </c>
+      <c r="K32" s="10">
+        <v>100</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="20">
+        <v>2</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="10">
+        <v>100</v>
+      </c>
+      <c r="K33" s="10">
+        <v>100</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" s="10">
+        <v>100</v>
+      </c>
+      <c r="K34" s="10">
+        <v>100</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20">
+        <v>8</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="10">
+        <v>100</v>
+      </c>
+      <c r="K35" s="10">
+        <v>100</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="20">
+        <v>2</v>
+      </c>
+      <c r="E36" s="20">
+        <v>1</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="10">
+        <v>99.65</v>
+      </c>
+      <c r="K36" s="10">
+        <v>100</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="20">
+        <v>8</v>
+      </c>
+      <c r="E37" s="20">
+        <v>9</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="10">
+        <v>100</v>
+      </c>
+      <c r="K37" s="10">
+        <v>100</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21">
+        <v>6</v>
+      </c>
+      <c r="D38" s="20">
+        <v>32</v>
+      </c>
+      <c r="E38" s="20">
+        <v>19</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" s="10">
+        <v>99.85</v>
+      </c>
+      <c r="K38" s="10">
+        <v>100</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21">
+        <v>2</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="K39" s="10">
+        <v>100</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21">
+        <v>4</v>
+      </c>
+      <c r="D40" s="20">
+        <v>12</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="K40" s="10">
+        <v>100</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21">
+        <v>13</v>
+      </c>
+      <c r="D41" s="20">
+        <v>27</v>
+      </c>
+      <c r="E41" s="20">
+        <v>15</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" s="10">
+        <v>99.55</v>
+      </c>
+      <c r="K41" s="10">
+        <v>100</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21">
+        <v>1</v>
+      </c>
+      <c r="D42" s="20">
+        <v>4</v>
+      </c>
+      <c r="E42" s="20">
         <v>3</v>
       </c>
-      <c r="C3" s="9">
+      <c r="F42" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="K42" s="10">
+        <v>100</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21">
+        <v>6</v>
+      </c>
+      <c r="D43" s="20">
+        <v>24</v>
+      </c>
+      <c r="E43" s="20">
+        <v>1</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" s="10">
+        <v>99.85</v>
+      </c>
+      <c r="K43" s="10">
+        <v>100</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21">
+        <v>2</v>
+      </c>
+      <c r="D44" s="20">
+        <v>5</v>
+      </c>
+      <c r="E44" s="20">
+        <v>4</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J44" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="K44" s="10">
+        <v>100</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21">
+        <v>9</v>
+      </c>
+      <c r="D45" s="20">
+        <v>39</v>
+      </c>
+      <c r="E45" s="20">
+        <v>27</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" s="10">
+        <v>100</v>
+      </c>
+      <c r="K45" s="10">
+        <v>100</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46" s="10">
+        <v>99.55</v>
+      </c>
+      <c r="K46" s="10">
+        <v>100</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="20">
+        <v>4</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" s="10">
+        <v>99.4</v>
+      </c>
+      <c r="K47" s="10">
+        <v>100</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21">
+        <v>2</v>
+      </c>
+      <c r="D48" s="20">
+        <v>4</v>
+      </c>
+      <c r="E48" s="20">
+        <v>3</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="K48" s="10">
+        <v>100</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="20">
+        <v>2</v>
+      </c>
+      <c r="E49" s="20">
+        <v>1</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J49" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="K49" s="10">
+        <v>100</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="20">
+        <v>5</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" s="10">
+        <v>99.85</v>
+      </c>
+      <c r="K50" s="10">
+        <v>100</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21">
+        <v>4</v>
+      </c>
+      <c r="D51" s="20">
+        <v>2</v>
+      </c>
+      <c r="E51" s="20">
+        <v>1</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J51" s="10">
+        <v>99.85</v>
+      </c>
+      <c r="K51" s="10">
+        <v>100</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="20">
+        <v>7</v>
+      </c>
+      <c r="E52" s="20">
+        <v>1</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G52" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="16">
-        <v>21</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="H52" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J52" s="10">
+        <v>99.25</v>
+      </c>
+      <c r="K52" s="10">
+        <v>100</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="20">
+        <v>1</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J53" s="10">
+        <v>99.39</v>
+      </c>
+      <c r="K53" s="10">
+        <v>100</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="20">
+        <v>1</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J54" s="10">
+        <v>99.25</v>
+      </c>
+      <c r="K54" s="10">
+        <v>100</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20">
+        <v>1</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J55" s="10">
+        <v>100</v>
+      </c>
+      <c r="K55" s="10">
+        <v>96</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B56" s="20">
+        <v>1</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J56" s="10">
+        <v>99.63</v>
+      </c>
+      <c r="K56" s="10">
+        <v>100</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="21">
+        <v>3</v>
+      </c>
+      <c r="D57" s="20">
+        <v>2</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" s="10">
+        <v>100</v>
+      </c>
+      <c r="K57" s="10">
+        <v>100</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="B58" s="20">
+        <v>2</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="10">
+        <v>99.61</v>
+      </c>
+      <c r="K58" s="10">
+        <v>100</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20">
+        <v>2</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J59" s="10">
+        <v>98.44</v>
+      </c>
+      <c r="K59" s="10">
+        <v>100</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21">
+        <v>1</v>
+      </c>
+      <c r="D60" s="20">
+        <v>2</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J60" s="10">
+        <v>99.32</v>
+      </c>
+      <c r="K60" s="10">
+        <v>100</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="20">
+        <v>2</v>
+      </c>
+      <c r="E61" s="25"/>
+      <c r="F61" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J61" s="10">
+        <v>98.63</v>
+      </c>
+      <c r="K61" s="10">
+        <v>100</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="20">
+        <v>1</v>
+      </c>
+      <c r="E62" s="25"/>
+      <c r="F62" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J62" s="10">
+        <v>98.96</v>
+      </c>
+      <c r="K62" s="10">
+        <v>97</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21">
+        <v>1</v>
+      </c>
+      <c r="D63" s="20"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J63" s="10">
+        <v>98.97</v>
+      </c>
+      <c r="K63" s="10">
+        <v>99</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21">
+        <v>3</v>
+      </c>
+      <c r="D64" s="20">
+        <v>2</v>
+      </c>
+      <c r="E64" s="25"/>
+      <c r="F64" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J64" s="10">
+        <v>98.97</v>
+      </c>
+      <c r="K64" s="10">
+        <v>98</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="21">
+        <v>2</v>
+      </c>
+      <c r="D65" s="20"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J65" s="10">
+        <v>98.97</v>
+      </c>
+      <c r="K65" s="10">
+        <v>98</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66" s="21">
+        <v>10</v>
+      </c>
+      <c r="D66" s="20">
+        <v>1</v>
+      </c>
+      <c r="E66" s="25"/>
+      <c r="F66" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J66" s="10">
+        <v>99.31</v>
+      </c>
+      <c r="K66" s="10">
+        <v>98</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21">
+        <v>1</v>
+      </c>
+      <c r="D67" s="20">
+        <v>2</v>
+      </c>
+      <c r="E67" s="25"/>
+      <c r="F67" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J67" s="10">
+        <v>99.31</v>
+      </c>
+      <c r="K67" s="10">
+        <v>98</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21">
+        <v>2</v>
+      </c>
+      <c r="D68" s="20">
+        <v>1</v>
+      </c>
+      <c r="E68" s="25"/>
+      <c r="F68" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J68" s="10">
+        <v>98.63</v>
+      </c>
+      <c r="K68" s="10">
+        <v>98</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21">
+        <v>1</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J69" s="10">
+        <v>98.97</v>
+      </c>
+      <c r="K69" s="10">
+        <v>98</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21">
+        <v>2</v>
+      </c>
+      <c r="D70" s="20">
+        <v>2</v>
+      </c>
+      <c r="E70" s="25"/>
+      <c r="F70" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J70" s="10">
+        <v>98.34</v>
+      </c>
+      <c r="K70" s="10">
+        <v>98</v>
+      </c>
+      <c r="L70" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="20">
+        <v>2</v>
+      </c>
+      <c r="E71" s="25"/>
+      <c r="F71" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J71" s="10">
+        <v>98.97</v>
+      </c>
+      <c r="K71" s="10">
+        <v>100</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="20">
+        <v>1</v>
+      </c>
+      <c r="E72" s="20">
+        <v>2</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J72" s="10">
+        <v>100</v>
+      </c>
+      <c r="K72" s="10">
+        <v>100</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="20">
+        <v>1</v>
+      </c>
+      <c r="E73" s="20">
         <v>4</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="J3" s="15">
-        <v>100</v>
-      </c>
-      <c r="K3" s="15">
-        <v>100</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.05" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="9">
+      <c r="F73" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J73" s="10">
+        <v>99.82</v>
+      </c>
+      <c r="K73" s="10">
+        <v>100</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="20">
+        <v>0</v>
+      </c>
+      <c r="E74" s="20">
         <v>1</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="J4" s="15">
-        <v>100</v>
-      </c>
-      <c r="K4" s="15">
-        <v>100</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="9">
+      <c r="F74" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J74" s="10">
+        <v>99.87</v>
+      </c>
+      <c r="K74" s="10">
+        <v>100</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B75" s="20">
+        <v>2</v>
+      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J75" s="10">
+        <v>100</v>
+      </c>
+      <c r="K75" s="10">
+        <v>100</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="15">
-        <v>100</v>
-      </c>
-      <c r="K5" s="15">
-        <v>100</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="16">
+      <c r="C76" s="21"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J76" s="10">
+        <v>100</v>
+      </c>
+      <c r="K76" s="10">
+        <v>100</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20">
+        <v>1</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J77" s="10">
+        <v>100</v>
+      </c>
+      <c r="K77" s="10">
+        <v>100</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="B78" s="26">
+        <v>1</v>
+      </c>
+      <c r="C78" s="21">
         <v>2</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="D78" s="20">
+        <v>1</v>
+      </c>
+      <c r="E78" s="20">
+        <v>4</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J78" s="10">
+        <v>100</v>
+      </c>
+      <c r="K78" s="10">
+        <v>100</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B79" s="20"/>
+      <c r="C79" s="21">
+        <v>1</v>
+      </c>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J79" s="10">
+        <v>100</v>
+      </c>
+      <c r="K79" s="10">
+        <v>100</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20">
+        <v>1</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J80" s="10">
+        <v>100</v>
+      </c>
+      <c r="K80" s="10">
+        <v>100</v>
+      </c>
+      <c r="L80" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41" ht="31.2">
+      <c r="A81" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="20">
+        <v>3</v>
+      </c>
+      <c r="E81" s="20">
         <v>12</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="J6" s="15">
-        <v>100</v>
-      </c>
-      <c r="K6" s="15">
-        <v>100</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="16">
+      <c r="F81" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="J81" s="10">
+        <v>100</v>
+      </c>
+      <c r="K81" s="10">
+        <v>100</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41">
+      <c r="A82" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="21">
         <v>1</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="J7" s="15">
-        <v>100</v>
-      </c>
-      <c r="K7" s="15">
-        <v>100</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="16">
-        <v>8</v>
-      </c>
-      <c r="C8" s="9">
-        <v>31</v>
-      </c>
-      <c r="D8" s="16">
-        <v>18</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="15">
-        <v>100</v>
-      </c>
-      <c r="K8" s="15">
-        <v>75</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B9" s="16">
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J82" s="10">
+        <v>99.8</v>
+      </c>
+      <c r="K82" s="10">
+        <v>100</v>
+      </c>
+      <c r="L82" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41">
+      <c r="A83" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B83" s="20">
+        <v>1</v>
+      </c>
+      <c r="C83" s="21"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="J83" s="10">
+        <v>100</v>
+      </c>
+      <c r="K83" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41">
+      <c r="A84" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B84" s="20"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20">
+        <v>1</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J84" s="10">
+        <v>97.74</v>
+      </c>
+      <c r="K84" s="10">
+        <v>100</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:41" s="9" customFormat="1">
+      <c r="A85" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="20">
+        <v>34</v>
+      </c>
+      <c r="E85" s="20">
+        <v>3</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="G85" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="15">
-        <v>99.63</v>
-      </c>
-      <c r="K9" s="15">
-        <v>100</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="16">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="15">
-        <v>100</v>
-      </c>
-      <c r="K10" s="15">
-        <v>100</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="16">
-        <v>24</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="15">
-        <v>100</v>
-      </c>
-      <c r="K11" s="15">
-        <v>100</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="11" customFormat="1">
-      <c r="A12" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="16">
-        <v>2</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="J12" s="15">
-        <v>100</v>
-      </c>
-      <c r="K12" s="15">
-        <v>100</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="16">
-        <v>5</v>
-      </c>
-      <c r="E13" s="16">
-        <v>2</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="15">
-        <v>100</v>
-      </c>
-      <c r="K13" s="15">
-        <v>100</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="16">
+      <c r="H85" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="I85" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="15">
-        <v>100</v>
-      </c>
-      <c r="K14" s="15">
-        <v>100</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16">
-        <v>1</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="15">
-        <v>100</v>
-      </c>
-      <c r="K15" s="15">
-        <v>100</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1">
-      <c r="A16" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="B16" s="16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9">
-        <v>16</v>
-      </c>
-      <c r="D16" s="16">
-        <v>4</v>
-      </c>
-      <c r="E16" s="16">
-        <v>2</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="15">
-        <v>100</v>
-      </c>
-      <c r="K16" s="15">
-        <v>100</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="34.950000000000003" customHeight="1">
-      <c r="A17" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="9">
-        <v>1</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="J17" s="15">
-        <v>100</v>
-      </c>
-      <c r="K17" s="15">
-        <v>100</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="34.049999999999997" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="9">
-        <v>2</v>
-      </c>
-      <c r="D18" s="16">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="J18" s="15">
-        <v>100</v>
-      </c>
-      <c r="K18" s="15">
-        <v>100</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="B19" s="16">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="15">
-        <v>99.8</v>
-      </c>
-      <c r="K19" s="15">
-        <v>100</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="10">
-        <v>5</v>
-      </c>
-      <c r="D20" s="16">
-        <v>3</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="J20" s="15">
-        <v>100</v>
-      </c>
-      <c r="K20" s="15">
-        <v>100</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="15">
-        <v>100</v>
-      </c>
-      <c r="K21" s="15">
-        <v>100</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="B22" s="16">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="J22" s="15">
-        <v>100</v>
-      </c>
-      <c r="K22" s="15">
-        <v>100</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B23" s="16">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="15">
-        <v>100</v>
-      </c>
-      <c r="K23" s="15">
-        <v>100</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="B24" s="16">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="J24" s="15">
-        <v>100</v>
-      </c>
-      <c r="K24" s="15">
-        <v>100</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="11" customFormat="1">
-      <c r="A25" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16">
-        <v>1</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="15">
-        <v>97.22</v>
-      </c>
-      <c r="K25" s="15">
-        <v>100</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="9">
-        <v>2</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="15">
-        <v>100</v>
-      </c>
-      <c r="K26" s="15">
-        <v>100</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="9">
-        <v>4</v>
-      </c>
-      <c r="D27" s="16">
-        <v>1</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="J27" s="15">
-        <v>100</v>
-      </c>
-      <c r="K27" s="15">
-        <v>100</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16.95" customHeight="1">
-      <c r="A28" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="9">
-        <v>7</v>
-      </c>
-      <c r="D28" s="16">
-        <v>1</v>
-      </c>
-      <c r="E28" s="16">
-        <v>13</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-    </row>
-    <row r="29" spans="1:12" ht="16.95" customHeight="1">
-      <c r="A29" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="16">
-        <v>1</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="J29" s="15">
-        <v>100</v>
-      </c>
-      <c r="K29" s="15">
-        <v>100</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="34.049999999999997" customHeight="1">
-      <c r="A30" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="9">
-        <v>1</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="J30" s="15">
-        <v>100</v>
-      </c>
-      <c r="K30" s="15">
-        <v>100</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J31" s="15">
-        <v>100</v>
-      </c>
-      <c r="K31" s="15">
-        <v>100</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="16">
-        <v>5</v>
-      </c>
-      <c r="E32" s="16">
-        <v>1</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J32" s="15">
-        <v>100</v>
-      </c>
-      <c r="K32" s="15">
-        <v>100</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="16">
-        <v>2</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" s="15">
-        <v>100</v>
-      </c>
-      <c r="K33" s="15">
-        <v>100</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="9">
-        <v>1</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16">
-        <v>1</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J34" s="15">
-        <v>100</v>
-      </c>
-      <c r="K34" s="15">
-        <v>100</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16">
-        <v>8</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="J35" s="15">
-        <v>100</v>
-      </c>
-      <c r="K35" s="15">
-        <v>100</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="16">
-        <v>2</v>
-      </c>
-      <c r="E36" s="16">
-        <v>1</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J36" s="15">
-        <v>99.65</v>
-      </c>
-      <c r="K36" s="15">
-        <v>100</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="16">
-        <v>8</v>
-      </c>
-      <c r="E37" s="16">
-        <v>9</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J37" s="15">
-        <v>100</v>
-      </c>
-      <c r="K37" s="15">
-        <v>100</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="9">
-        <v>6</v>
-      </c>
-      <c r="D38" s="16">
-        <v>32</v>
-      </c>
-      <c r="E38" s="16">
-        <v>19</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J38" s="15">
-        <v>99.85</v>
-      </c>
-      <c r="K38" s="15">
-        <v>100</v>
-      </c>
-      <c r="L38" s="15" t="s">
+      <c r="J85" s="10">
+        <v>100</v>
+      </c>
+      <c r="K85" s="10">
+        <v>100</v>
+      </c>
+      <c r="L85" s="10" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="9">
-        <v>2</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J39" s="15">
-        <v>99.7</v>
-      </c>
-      <c r="K39" s="15">
-        <v>100</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="9">
-        <v>4</v>
-      </c>
-      <c r="D40" s="16">
-        <v>12</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J40" s="15">
-        <v>99.7</v>
-      </c>
-      <c r="K40" s="15">
-        <v>100</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="9">
-        <v>13</v>
-      </c>
-      <c r="D41" s="16">
-        <v>27</v>
-      </c>
-      <c r="E41" s="16">
-        <v>15</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J41" s="15">
-        <v>99.55</v>
-      </c>
-      <c r="K41" s="15">
-        <v>100</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="9">
-        <v>1</v>
-      </c>
-      <c r="D42" s="16">
-        <v>4</v>
-      </c>
-      <c r="E42" s="16">
-        <v>3</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J42" s="15">
-        <v>99.7</v>
-      </c>
-      <c r="K42" s="15">
-        <v>100</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="9">
-        <v>6</v>
-      </c>
-      <c r="D43" s="16">
-        <v>24</v>
-      </c>
-      <c r="E43" s="16">
-        <v>1</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J43" s="15">
-        <v>99.85</v>
-      </c>
-      <c r="K43" s="15">
-        <v>100</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="9">
-        <v>2</v>
-      </c>
-      <c r="D44" s="16">
-        <v>5</v>
-      </c>
-      <c r="E44" s="16">
-        <v>4</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J44" s="15">
-        <v>99.7</v>
-      </c>
-      <c r="K44" s="15">
-        <v>100</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="9">
-        <v>9</v>
-      </c>
-      <c r="D45" s="16">
-        <v>39</v>
-      </c>
-      <c r="E45" s="16">
-        <v>27</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J45" s="15">
-        <v>100</v>
-      </c>
-      <c r="K45" s="15">
-        <v>100</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16">
-        <v>1</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J46" s="15">
-        <v>99.55</v>
-      </c>
-      <c r="K46" s="15">
-        <v>100</v>
-      </c>
-      <c r="L46" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="16">
-        <v>4</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J47" s="15">
-        <v>99.4</v>
-      </c>
-      <c r="K47" s="15">
-        <v>100</v>
-      </c>
-      <c r="L47" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="9">
-        <v>2</v>
-      </c>
-      <c r="D48" s="16">
-        <v>4</v>
-      </c>
-      <c r="E48" s="16">
-        <v>3</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J48" s="15">
-        <v>99.7</v>
-      </c>
-      <c r="K48" s="15">
-        <v>100</v>
-      </c>
-      <c r="L48" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="16">
-        <v>2</v>
-      </c>
-      <c r="E49" s="16">
-        <v>1</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J49" s="15">
-        <v>99.7</v>
-      </c>
-      <c r="K49" s="15">
-        <v>100</v>
-      </c>
-      <c r="L49" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="16">
-        <v>5</v>
-      </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J50" s="15">
-        <v>99.85</v>
-      </c>
-      <c r="K50" s="15">
-        <v>100</v>
-      </c>
-      <c r="L50" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="9">
-        <v>4</v>
-      </c>
-      <c r="D51" s="16">
-        <v>2</v>
-      </c>
-      <c r="E51" s="16">
-        <v>1</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J51" s="15">
-        <v>99.85</v>
-      </c>
-      <c r="K51" s="15">
-        <v>100</v>
-      </c>
-      <c r="L51" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="16">
-        <v>7</v>
-      </c>
-      <c r="E52" s="16">
-        <v>1</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H52" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J52" s="15">
-        <v>99.25</v>
-      </c>
-      <c r="K52" s="15">
-        <v>100</v>
-      </c>
-      <c r="L52" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="16">
-        <v>1</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H53" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J53" s="15">
-        <v>99.39</v>
-      </c>
-      <c r="K53" s="15">
-        <v>100</v>
-      </c>
-      <c r="L53" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="16">
-        <v>1</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J54" s="15">
-        <v>99.25</v>
-      </c>
-      <c r="K54" s="15">
-        <v>100</v>
-      </c>
-      <c r="L54" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16">
-        <v>1</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J55" s="15">
-        <v>100</v>
-      </c>
-      <c r="K55" s="15">
-        <v>96</v>
-      </c>
-      <c r="L55" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="B56" s="16">
-        <v>1</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="I56" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J56" s="15">
-        <v>99.63</v>
-      </c>
-      <c r="K56" s="15">
-        <v>100</v>
-      </c>
-      <c r="L56" s="15" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="9">
-        <v>3</v>
-      </c>
-      <c r="D57" s="16">
-        <v>2</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="I57" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J57" s="15">
-        <v>100</v>
-      </c>
-      <c r="K57" s="15">
-        <v>100</v>
-      </c>
-      <c r="L57" s="15" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="B58" s="16">
-        <v>2</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="I58" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="15">
-        <v>99.61</v>
-      </c>
-      <c r="K58" s="15">
-        <v>100</v>
-      </c>
-      <c r="L58" s="15" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16">
-        <v>2</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="J59" s="15">
-        <v>98.44</v>
-      </c>
-      <c r="K59" s="15">
-        <v>100</v>
-      </c>
-      <c r="L59" s="15" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="9">
-        <v>1</v>
-      </c>
-      <c r="D60" s="16">
-        <v>2</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H60" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="I60" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J60" s="15">
-        <v>99.32</v>
-      </c>
-      <c r="K60" s="15">
-        <v>100</v>
-      </c>
-      <c r="L60" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="16">
-        <v>2</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J61" s="15">
-        <v>98.63</v>
-      </c>
-      <c r="K61" s="15">
-        <v>100</v>
-      </c>
-      <c r="L61" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="16">
-        <v>1</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J62" s="15">
-        <v>98.96</v>
-      </c>
-      <c r="K62" s="15">
-        <v>97</v>
-      </c>
-      <c r="L62" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="9">
-        <v>1</v>
-      </c>
-      <c r="D63" s="16"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="I63" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J63" s="15">
-        <v>98.97</v>
-      </c>
-      <c r="K63" s="15">
-        <v>99</v>
-      </c>
-      <c r="L63" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="9">
-        <v>3</v>
-      </c>
-      <c r="D64" s="16">
-        <v>2</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H64" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="I64" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J64" s="15">
-        <v>98.97</v>
-      </c>
-      <c r="K64" s="15">
-        <v>98</v>
-      </c>
-      <c r="L64" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="9">
-        <v>2</v>
-      </c>
-      <c r="D65" s="16"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="I65" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J65" s="15">
-        <v>98.97</v>
-      </c>
-      <c r="K65" s="15">
-        <v>98</v>
-      </c>
-      <c r="L65" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="9">
-        <v>10</v>
-      </c>
-      <c r="D66" s="16">
-        <v>1</v>
-      </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="I66" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J66" s="15">
-        <v>99.31</v>
-      </c>
-      <c r="K66" s="15">
-        <v>98</v>
-      </c>
-      <c r="L66" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="9">
-        <v>1</v>
-      </c>
-      <c r="D67" s="16">
-        <v>2</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="I67" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J67" s="15">
-        <v>99.31</v>
-      </c>
-      <c r="K67" s="15">
-        <v>98</v>
-      </c>
-      <c r="L67" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="9">
-        <v>2</v>
-      </c>
-      <c r="D68" s="16">
-        <v>1</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="I68" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J68" s="15">
-        <v>98.63</v>
-      </c>
-      <c r="K68" s="15">
-        <v>98</v>
-      </c>
-      <c r="L68" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="9">
-        <v>1</v>
-      </c>
-      <c r="D69" s="16"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="I69" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J69" s="15">
-        <v>98.97</v>
-      </c>
-      <c r="K69" s="15">
-        <v>98</v>
-      </c>
-      <c r="L69" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="9">
-        <v>2</v>
-      </c>
-      <c r="D70" s="16">
-        <v>2</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="I70" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J70" s="15">
-        <v>98.34</v>
-      </c>
-      <c r="K70" s="15">
-        <v>98</v>
-      </c>
-      <c r="L70" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="16">
-        <v>2</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="H71" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="I71" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J71" s="15">
-        <v>98.97</v>
-      </c>
-      <c r="K71" s="15">
-        <v>100</v>
-      </c>
-      <c r="L71" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="16">
-        <v>1</v>
-      </c>
-      <c r="E72" s="16">
-        <v>2</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="I72" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="J72" s="15">
-        <v>100</v>
-      </c>
-      <c r="K72" s="15">
-        <v>100</v>
-      </c>
-      <c r="L72" s="15" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="16">
-        <v>1</v>
-      </c>
-      <c r="E73" s="16">
-        <v>4</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="I73" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="J73" s="15">
-        <v>99.82</v>
-      </c>
-      <c r="K73" s="15">
-        <v>100</v>
-      </c>
-      <c r="L73" s="15" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="16">
-        <v>0</v>
-      </c>
-      <c r="E74" s="16">
-        <v>1</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H74" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="I74" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="J74" s="15">
-        <v>99.87</v>
-      </c>
-      <c r="K74" s="15">
-        <v>100</v>
-      </c>
-      <c r="L74" s="15" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B75" s="16">
-        <v>2</v>
-      </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H75" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="I75" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J75" s="15">
-        <v>100</v>
-      </c>
-      <c r="K75" s="15">
-        <v>100</v>
-      </c>
-      <c r="L75" s="15" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B76" s="16">
-        <v>1</v>
-      </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H76" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="I76" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="J76" s="15">
-        <v>100</v>
-      </c>
-      <c r="K76" s="15">
-        <v>100</v>
-      </c>
-      <c r="L76" s="15" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16">
-        <v>1</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H77" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="I77" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="J77" s="15">
-        <v>100</v>
-      </c>
-      <c r="K77" s="15">
-        <v>100</v>
-      </c>
-      <c r="L77" s="15" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="B78" s="20">
-        <v>1</v>
-      </c>
-      <c r="C78" s="9">
-        <v>2</v>
-      </c>
-      <c r="D78" s="16">
-        <v>1</v>
-      </c>
-      <c r="E78" s="16">
-        <v>4</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H78" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="I78" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="J78" s="15">
-        <v>100</v>
-      </c>
-      <c r="K78" s="15">
-        <v>100</v>
-      </c>
-      <c r="L78" s="15" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="9">
-        <v>1</v>
-      </c>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H79" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="I79" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J79" s="15">
-        <v>100</v>
-      </c>
-      <c r="K79" s="15">
-        <v>100</v>
-      </c>
-      <c r="L79" s="15" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16">
-        <v>1</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H80" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="I80" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="J80" s="15">
-        <v>100</v>
-      </c>
-      <c r="K80" s="15">
-        <v>100</v>
-      </c>
-      <c r="L80" s="15" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="81" spans="1:41" ht="31.2">
-      <c r="A81" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="16">
-        <v>3</v>
-      </c>
-      <c r="E81" s="16">
-        <v>12</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H81" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="I81" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="J81" s="15">
-        <v>100</v>
-      </c>
-      <c r="K81" s="15">
-        <v>100</v>
-      </c>
-      <c r="L81" s="15" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="82" spans="1:41">
-      <c r="A82" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="9">
-        <v>1</v>
-      </c>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H82" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="I82" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J82" s="15">
-        <v>99.8</v>
-      </c>
-      <c r="K82" s="15">
-        <v>100</v>
-      </c>
-      <c r="L82" s="15" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="83" spans="1:41">
-      <c r="A83" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="B83" s="16">
-        <v>1</v>
-      </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H83" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="I83" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="J83" s="15">
-        <v>100</v>
-      </c>
-      <c r="K83" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="L83" s="15" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="84" spans="1:41">
-      <c r="A84" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16">
-        <v>1</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H84" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J84" s="15">
-        <v>97.74</v>
-      </c>
-      <c r="K84" s="15">
-        <v>100</v>
-      </c>
-      <c r="L84" s="15" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="85" spans="1:41" s="11" customFormat="1">
-      <c r="A85" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="B85" s="16"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="16">
-        <v>34</v>
-      </c>
-      <c r="E85" s="16">
-        <v>3</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="I85" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J85" s="15">
-        <v>100</v>
-      </c>
-      <c r="K85" s="15">
-        <v>100</v>
-      </c>
-      <c r="L85" s="15" t="s">
-        <v>581</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
@@ -8342,1820 +8375,1820 @@
       <c r="AO85" s="1"/>
     </row>
     <row r="86" spans="1:41">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="20">
+        <v>3</v>
+      </c>
+      <c r="E86" s="20">
+        <v>1</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J86" s="10">
+        <v>99.72</v>
+      </c>
+      <c r="K86" s="10">
+        <v>100</v>
+      </c>
+      <c r="L86" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41">
+      <c r="A87" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="21">
+        <v>3</v>
+      </c>
+      <c r="D87" s="20">
+        <v>12</v>
+      </c>
+      <c r="E87" s="20">
+        <v>3</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J87" s="10">
+        <v>100</v>
+      </c>
+      <c r="K87" s="10">
+        <v>100</v>
+      </c>
+      <c r="L87" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41">
+      <c r="A88" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="20">
+        <v>2</v>
+      </c>
+      <c r="E88" s="20"/>
+      <c r="F88" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="J88" s="10">
+        <v>99.72</v>
+      </c>
+      <c r="K88" s="10">
+        <v>100</v>
+      </c>
+      <c r="L88" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41">
+      <c r="A89" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B86" s="16"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="16">
+      <c r="B89" s="20"/>
+      <c r="C89" s="21">
         <v>3</v>
       </c>
-      <c r="E86" s="16">
+      <c r="D89" s="20">
+        <v>13</v>
+      </c>
+      <c r="E89" s="20">
+        <v>5</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J89" s="10">
+        <v>99.72</v>
+      </c>
+      <c r="K89" s="10">
+        <v>100</v>
+      </c>
+      <c r="L89" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41">
+      <c r="A90" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B90" s="20"/>
+      <c r="C90" s="21">
+        <v>2</v>
+      </c>
+      <c r="D90" s="20">
+        <v>2</v>
+      </c>
+      <c r="E90" s="20">
+        <v>3</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J90" s="10">
+        <v>100</v>
+      </c>
+      <c r="K90" s="10">
+        <v>95</v>
+      </c>
+      <c r="L90" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41">
+      <c r="A91" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="21">
+        <v>5</v>
+      </c>
+      <c r="D91" s="20">
+        <v>2</v>
+      </c>
+      <c r="E91" s="20">
+        <v>8</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J91" s="10">
+        <v>99.77</v>
+      </c>
+      <c r="K91" s="10">
+        <v>95</v>
+      </c>
+      <c r="L91" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41">
+      <c r="A92" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20">
+        <v>5</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J92" s="10">
+        <v>99.53</v>
+      </c>
+      <c r="K92" s="10">
+        <v>95</v>
+      </c>
+      <c r="L92" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41">
+      <c r="A93" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="21">
         <v>1</v>
       </c>
-      <c r="F86" s="17" t="s">
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J93" s="10">
+        <v>99.07</v>
+      </c>
+      <c r="K93" s="10">
+        <v>95</v>
+      </c>
+      <c r="L93" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41">
+      <c r="A94" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20">
+        <v>1</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J94" s="10">
+        <v>99.3</v>
+      </c>
+      <c r="K94" s="10">
+        <v>95</v>
+      </c>
+      <c r="L94" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41">
+      <c r="A95" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B95" s="20"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="20">
+        <v>1</v>
+      </c>
+      <c r="E95" s="20"/>
+      <c r="F95" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J95" s="10">
+        <v>98.83</v>
+      </c>
+      <c r="K95" s="10">
+        <v>95</v>
+      </c>
+      <c r="L95" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41">
+      <c r="A96" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="20">
+        <v>2</v>
+      </c>
+      <c r="E96" s="20">
+        <v>6</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J96" s="10">
+        <v>99.72</v>
+      </c>
+      <c r="K96" s="10">
+        <v>100</v>
+      </c>
+      <c r="L96" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="21">
+        <v>1</v>
+      </c>
+      <c r="D97" s="20">
+        <v>4</v>
+      </c>
+      <c r="E97" s="20"/>
+      <c r="F97" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J97" s="10">
+        <v>100</v>
+      </c>
+      <c r="K97" s="10">
+        <v>100</v>
+      </c>
+      <c r="L97" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="20">
+        <v>2</v>
+      </c>
+      <c r="E98" s="20"/>
+      <c r="F98" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J98" s="10">
+        <v>99.72</v>
+      </c>
+      <c r="K98" s="10">
+        <v>100</v>
+      </c>
+      <c r="L98" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="20">
+        <v>5</v>
+      </c>
+      <c r="E99" s="20"/>
+      <c r="F99" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J99" s="10">
+        <v>99.45</v>
+      </c>
+      <c r="K99" s="10">
+        <v>100</v>
+      </c>
+      <c r="L99" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="20">
+        <v>1</v>
+      </c>
+      <c r="E100" s="20"/>
+      <c r="F100" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J100" s="10">
+        <v>99.44</v>
+      </c>
+      <c r="K100" s="10">
+        <v>100</v>
+      </c>
+      <c r="L100" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="20">
+        <v>3</v>
+      </c>
+      <c r="E101" s="20"/>
+      <c r="F101" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J101" s="10">
+        <v>100</v>
+      </c>
+      <c r="K101" s="10">
+        <v>100</v>
+      </c>
+      <c r="L101" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="20">
+        <v>1</v>
+      </c>
+      <c r="E102" s="20">
+        <v>1</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J102" s="10">
+        <v>98.89</v>
+      </c>
+      <c r="K102" s="10">
+        <v>100</v>
+      </c>
+      <c r="L102" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="20">
+        <v>4</v>
+      </c>
+      <c r="E103" s="20"/>
+      <c r="F103" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J103" s="10">
+        <v>99.72</v>
+      </c>
+      <c r="K103" s="10">
+        <v>100</v>
+      </c>
+      <c r="L103" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="B104" s="20"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="20">
+        <v>1</v>
+      </c>
+      <c r="E104" s="20"/>
+      <c r="F104" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J104" s="10">
+        <v>99.44</v>
+      </c>
+      <c r="K104" s="10">
+        <v>100</v>
+      </c>
+      <c r="L104" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B105" s="20"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="20">
+        <v>1</v>
+      </c>
+      <c r="E105" s="20"/>
+      <c r="F105" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J105" s="10">
+        <v>99.44</v>
+      </c>
+      <c r="K105" s="10">
+        <v>100</v>
+      </c>
+      <c r="L105" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="20">
+        <v>2</v>
+      </c>
+      <c r="E106" s="20"/>
+      <c r="F106" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="I106" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J106" s="10">
+        <v>99.72</v>
+      </c>
+      <c r="K106" s="10">
+        <v>100</v>
+      </c>
+      <c r="L106" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B107" s="20"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="20">
+        <v>8</v>
+      </c>
+      <c r="E107" s="20">
+        <v>1</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J107" s="10">
+        <v>99.72</v>
+      </c>
+      <c r="K107" s="10">
+        <v>100</v>
+      </c>
+      <c r="L107" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B108" s="20"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="20">
+        <v>4</v>
+      </c>
+      <c r="E108" s="20"/>
+      <c r="F108" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J108" s="10">
+        <v>99.44</v>
+      </c>
+      <c r="K108" s="10">
+        <v>100</v>
+      </c>
+      <c r="L108" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B109" s="20"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="20">
+        <v>4</v>
+      </c>
+      <c r="E109" s="20"/>
+      <c r="F109" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="I109" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J109" s="10">
+        <v>99.44</v>
+      </c>
+      <c r="K109" s="10">
+        <v>100</v>
+      </c>
+      <c r="L109" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B110" s="20"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="20">
+        <v>1</v>
+      </c>
+      <c r="E110" s="20">
+        <v>4</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J110" s="10">
+        <v>100</v>
+      </c>
+      <c r="K110" s="10">
+        <v>100</v>
+      </c>
+      <c r="L110" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B111" s="20"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="20">
+        <v>3</v>
+      </c>
+      <c r="E111" s="20"/>
+      <c r="F111" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I111" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J111" s="10">
+        <v>99.44</v>
+      </c>
+      <c r="K111" s="10">
+        <v>100</v>
+      </c>
+      <c r="L111" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="20">
+        <v>16</v>
+      </c>
+      <c r="E112" s="20"/>
+      <c r="F112" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J112" s="10">
+        <v>100</v>
+      </c>
+      <c r="K112" s="10">
+        <v>100</v>
+      </c>
+      <c r="L112" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B113" s="20"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="20">
+        <v>3</v>
+      </c>
+      <c r="E113" s="20"/>
+      <c r="F113" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J113" s="10">
+        <v>99.72</v>
+      </c>
+      <c r="K113" s="10">
+        <v>100</v>
+      </c>
+      <c r="L113" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20">
+        <v>2</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J114" s="10">
+        <v>100</v>
+      </c>
+      <c r="K114" s="10">
+        <v>100</v>
+      </c>
+      <c r="L114" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B115" s="20"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20">
+        <v>2</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="J115" s="10">
+        <v>99.75</v>
+      </c>
+      <c r="K115" s="10">
+        <v>100</v>
+      </c>
+      <c r="L115" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B116" s="20"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="20">
+        <v>2</v>
+      </c>
+      <c r="E116" s="20">
+        <v>2</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="J116" s="10">
+        <v>100</v>
+      </c>
+      <c r="K116" s="10">
+        <v>100</v>
+      </c>
+      <c r="L116" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B117" s="20"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="20">
+        <v>33</v>
+      </c>
+      <c r="E117" s="20">
+        <v>3</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="I117" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J117" s="10">
+        <v>100</v>
+      </c>
+      <c r="K117" s="10">
+        <v>100</v>
+      </c>
+      <c r="L117" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B118" s="20"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="20">
+        <v>1</v>
+      </c>
+      <c r="E118" s="20"/>
+      <c r="F118" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J118" s="10">
+        <v>100</v>
+      </c>
+      <c r="K118" s="10">
+        <v>100</v>
+      </c>
+      <c r="L118" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B119" s="20"/>
+      <c r="C119" s="21">
+        <v>1</v>
+      </c>
+      <c r="D119" s="20">
+        <v>22</v>
+      </c>
+      <c r="E119" s="20">
+        <v>3</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="I119" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J119" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="K119" s="10">
+        <v>100</v>
+      </c>
+      <c r="L119" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B120" s="20"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="20">
+        <v>1</v>
+      </c>
+      <c r="E120" s="20"/>
+      <c r="F120" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J120" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="K120" s="10">
+        <v>100</v>
+      </c>
+      <c r="L120" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B121" s="20"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="20">
+        <v>2</v>
+      </c>
+      <c r="E121" s="20"/>
+      <c r="F121" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J121" s="10">
+        <v>99.41</v>
+      </c>
+      <c r="K121" s="10">
+        <v>100</v>
+      </c>
+      <c r="L121" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B122" s="20"/>
+      <c r="C122" s="21">
+        <v>1</v>
+      </c>
+      <c r="D122" s="20">
+        <v>7</v>
+      </c>
+      <c r="E122" s="20"/>
+      <c r="F122" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J122" s="10">
+        <v>100</v>
+      </c>
+      <c r="K122" s="10">
+        <v>100</v>
+      </c>
+      <c r="L122" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" s="20"/>
+      <c r="C123" s="21">
+        <v>3</v>
+      </c>
+      <c r="D123" s="20">
+        <v>1</v>
+      </c>
+      <c r="E123" s="20">
+        <v>1</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="I123" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="J123" s="10">
+        <v>100</v>
+      </c>
+      <c r="K123" s="10">
+        <v>100</v>
+      </c>
+      <c r="L123" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B124" s="20"/>
+      <c r="C124" s="21">
+        <v>1</v>
+      </c>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="G86" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="H86" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="I86" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="J86" s="15">
-        <v>99.72</v>
-      </c>
-      <c r="K86" s="15">
-        <v>100</v>
-      </c>
-      <c r="L86" s="15" t="s">
+      <c r="G124" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="I124" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="J124" s="10">
+        <v>100</v>
+      </c>
+      <c r="K124" s="10">
+        <v>100</v>
+      </c>
+      <c r="L124" s="10" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B125" s="20"/>
+      <c r="C125" s="21">
+        <v>3</v>
+      </c>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="I125" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="J125" s="10">
+        <v>99.62</v>
+      </c>
+      <c r="K125" s="10">
+        <v>100</v>
+      </c>
+      <c r="L125" s="10" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B126" s="20"/>
+      <c r="C126" s="21">
+        <v>1</v>
+      </c>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="J126" s="10">
+        <v>99.81</v>
+      </c>
+      <c r="K126" s="10">
+        <v>100</v>
+      </c>
+      <c r="L126" s="10" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="B127" s="20"/>
+      <c r="C127" s="21">
+        <v>2</v>
+      </c>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="I127" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="J127" s="10">
+        <v>99.66</v>
+      </c>
+      <c r="K127" s="10">
+        <v>100</v>
+      </c>
+      <c r="L127" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B128" s="20"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="20">
+        <v>2</v>
+      </c>
+      <c r="E128" s="20">
+        <v>4</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J128" s="10">
+        <v>100</v>
+      </c>
+      <c r="K128" s="10">
+        <v>100</v>
+      </c>
+      <c r="L128" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B129" s="20"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20">
+        <v>4</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J129" s="10">
+        <v>99.64</v>
+      </c>
+      <c r="K129" s="10">
+        <v>100</v>
+      </c>
+      <c r="L129" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20">
+        <v>3</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J130" s="10">
+        <v>99.46</v>
+      </c>
+      <c r="K130" s="10">
+        <v>100</v>
+      </c>
+      <c r="L130" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B131" s="20"/>
+      <c r="C131" s="21">
+        <v>4</v>
+      </c>
+      <c r="D131" s="20">
+        <v>4</v>
+      </c>
+      <c r="E131" s="20">
+        <v>2</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="I131" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="J131" s="10">
+        <v>100</v>
+      </c>
+      <c r="K131" s="10">
+        <v>100</v>
+      </c>
+      <c r="L131" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B132" s="20"/>
+      <c r="C132" s="21">
+        <v>1</v>
+      </c>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="J132" s="10">
+        <v>99.82</v>
+      </c>
+      <c r="K132" s="10">
+        <v>100</v>
+      </c>
+      <c r="L132" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B133" s="20">
+        <v>1</v>
+      </c>
+      <c r="C133" s="21"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="I133" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="J133" s="10">
+        <v>99.8</v>
+      </c>
+      <c r="K133" s="10">
+        <v>100</v>
+      </c>
+      <c r="L133" s="10" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B134" s="20"/>
+      <c r="C134" s="21">
+        <v>1</v>
+      </c>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="I134" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="J134" s="10">
+        <v>100</v>
+      </c>
+      <c r="K134" s="10">
+        <v>100</v>
+      </c>
+      <c r="L134" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="21">
+        <v>2</v>
+      </c>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="I135" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J135" s="10">
+        <v>98.84</v>
+      </c>
+      <c r="K135" s="10">
+        <v>100</v>
+      </c>
+      <c r="L135" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B136" s="20"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="20">
+        <v>1</v>
+      </c>
+      <c r="E136" s="20">
+        <v>4</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="J136" s="10">
+        <v>99.77</v>
+      </c>
+      <c r="K136" s="10">
+        <v>99</v>
+      </c>
+      <c r="L136" s="10" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="87" spans="1:41">
-      <c r="A87" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="B87" s="16"/>
-      <c r="C87" s="9">
-        <v>3</v>
-      </c>
-      <c r="D87" s="16">
-        <v>12</v>
-      </c>
-      <c r="E87" s="16">
-        <v>3</v>
-      </c>
-      <c r="F87" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="H87" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="I87" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="J87" s="15">
-        <v>100</v>
-      </c>
-      <c r="K87" s="15">
-        <v>100</v>
-      </c>
-      <c r="L87" s="15" t="s">
+    <row r="137" spans="1:12">
+      <c r="A137" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B137" s="20"/>
+      <c r="C137" s="21">
+        <v>2</v>
+      </c>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="J137" s="10">
+        <v>100</v>
+      </c>
+      <c r="K137" s="10">
+        <v>100</v>
+      </c>
+      <c r="L137" s="10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B138" s="20">
+        <v>1</v>
+      </c>
+      <c r="C138" s="21"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="I138" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="J138" s="10">
+        <v>99.6</v>
+      </c>
+      <c r="K138" s="10">
+        <v>100</v>
+      </c>
+      <c r="L138" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B139" s="20"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="20">
+        <v>1</v>
+      </c>
+      <c r="E139" s="20"/>
+      <c r="F139" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="I139" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="J139" s="10">
+        <v>100</v>
+      </c>
+      <c r="K139" s="10">
+        <v>100</v>
+      </c>
+      <c r="L139" s="10" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="88" spans="1:41">
-      <c r="A88" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="B88" s="16"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="16">
-        <v>2</v>
-      </c>
-      <c r="E88" s="16"/>
-      <c r="F88" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H88" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="I88" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="J88" s="15">
-        <v>99.72</v>
-      </c>
-      <c r="K88" s="15">
-        <v>100</v>
-      </c>
-      <c r="L88" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="89" spans="1:41">
-      <c r="A89" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="B89" s="16"/>
-      <c r="C89" s="9">
-        <v>3</v>
-      </c>
-      <c r="D89" s="16">
-        <v>13</v>
-      </c>
-      <c r="E89" s="16">
-        <v>5</v>
-      </c>
-      <c r="F89" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="H89" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="I89" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="J89" s="15">
-        <v>99.72</v>
-      </c>
-      <c r="K89" s="15">
-        <v>100</v>
-      </c>
-      <c r="L89" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="90" spans="1:41">
-      <c r="A90" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="B90" s="16"/>
-      <c r="C90" s="9">
-        <v>2</v>
-      </c>
-      <c r="D90" s="16">
-        <v>2</v>
-      </c>
-      <c r="E90" s="16">
-        <v>3</v>
-      </c>
-      <c r="F90" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H90" s="16" t="s">
-        <v>506</v>
-      </c>
-      <c r="I90" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="J90" s="15">
-        <v>100</v>
-      </c>
-      <c r="K90" s="15">
-        <v>95</v>
-      </c>
-      <c r="L90" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="91" spans="1:41">
-      <c r="A91" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="B91" s="16"/>
-      <c r="C91" s="9">
-        <v>5</v>
-      </c>
-      <c r="D91" s="16">
-        <v>2</v>
-      </c>
-      <c r="E91" s="16">
-        <v>8</v>
-      </c>
-      <c r="F91" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="H91" s="16" t="s">
+    <row r="140" spans="1:12">
+      <c r="A140" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B140" s="11">
+        <v>29</v>
+      </c>
+      <c r="C140" s="8">
+        <v>265</v>
+      </c>
+      <c r="D140" s="11">
         <v>507</v>
       </c>
-      <c r="I91" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="J91" s="15">
-        <v>99.77</v>
-      </c>
-      <c r="K91" s="15">
-        <v>95</v>
-      </c>
-      <c r="L91" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="92" spans="1:41">
-      <c r="A92" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16">
-        <v>5</v>
-      </c>
-      <c r="F92" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="H92" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="I92" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="J92" s="15">
-        <v>99.53</v>
-      </c>
-      <c r="K92" s="15">
-        <v>95</v>
-      </c>
-      <c r="L92" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="93" spans="1:41">
-      <c r="A93" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="9">
-        <v>1</v>
-      </c>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H93" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="I93" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="J93" s="15">
-        <v>99.07</v>
-      </c>
-      <c r="K93" s="15">
-        <v>95</v>
-      </c>
-      <c r="L93" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="94" spans="1:41">
-      <c r="A94" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B94" s="16"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16">
-        <v>1</v>
-      </c>
-      <c r="F94" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="G94" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H94" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="I94" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="J94" s="15">
-        <v>99.3</v>
-      </c>
-      <c r="K94" s="15">
-        <v>95</v>
-      </c>
-      <c r="L94" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="95" spans="1:41">
-      <c r="A95" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B95" s="16"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="16">
-        <v>1</v>
-      </c>
-      <c r="E95" s="16"/>
-      <c r="F95" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H95" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="I95" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="J95" s="15">
-        <v>98.83</v>
-      </c>
-      <c r="K95" s="15">
-        <v>95</v>
-      </c>
-      <c r="L95" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="96" spans="1:41">
-      <c r="A96" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="B96" s="16"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="16">
-        <v>2</v>
-      </c>
-      <c r="E96" s="16">
-        <v>6</v>
-      </c>
-      <c r="F96" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H96" s="16" t="s">
-        <v>512</v>
-      </c>
-      <c r="I96" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="J96" s="15">
-        <v>99.72</v>
-      </c>
-      <c r="K96" s="15">
-        <v>100</v>
-      </c>
-      <c r="L96" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B97" s="16"/>
-      <c r="C97" s="9">
-        <v>1</v>
-      </c>
-      <c r="D97" s="16">
-        <v>4</v>
-      </c>
-      <c r="E97" s="16"/>
-      <c r="F97" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G97" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="H97" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="I97" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J97" s="15">
-        <v>100</v>
-      </c>
-      <c r="K97" s="15">
-        <v>100</v>
-      </c>
-      <c r="L97" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="16">
-        <v>2</v>
-      </c>
-      <c r="E98" s="16"/>
-      <c r="F98" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G98" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="H98" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="I98" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J98" s="15">
-        <v>99.72</v>
-      </c>
-      <c r="K98" s="15">
-        <v>100</v>
-      </c>
-      <c r="L98" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="B99" s="16"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="16">
-        <v>5</v>
-      </c>
-      <c r="E99" s="16"/>
-      <c r="F99" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G99" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="H99" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="I99" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J99" s="15">
-        <v>99.45</v>
-      </c>
-      <c r="K99" s="15">
-        <v>100</v>
-      </c>
-      <c r="L99" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="B100" s="16"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="16">
-        <v>1</v>
-      </c>
-      <c r="E100" s="16"/>
-      <c r="F100" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G100" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H100" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="I100" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J100" s="15">
-        <v>99.44</v>
-      </c>
-      <c r="K100" s="15">
-        <v>100</v>
-      </c>
-      <c r="L100" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="16">
-        <v>3</v>
-      </c>
-      <c r="E101" s="16"/>
-      <c r="F101" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="H101" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="I101" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="J101" s="15">
-        <v>100</v>
-      </c>
-      <c r="K101" s="15">
-        <v>100</v>
-      </c>
-      <c r="L101" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="B102" s="16"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="16">
-        <v>1</v>
-      </c>
-      <c r="E102" s="16">
-        <v>1</v>
-      </c>
-      <c r="F102" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G102" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="H102" s="16" t="s">
-        <v>518</v>
-      </c>
-      <c r="I102" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J102" s="15">
-        <v>98.89</v>
-      </c>
-      <c r="K102" s="15">
-        <v>100</v>
-      </c>
-      <c r="L102" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="B103" s="16"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="16">
-        <v>4</v>
-      </c>
-      <c r="E103" s="16"/>
-      <c r="F103" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G103" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="H103" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="I103" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J103" s="15">
-        <v>99.72</v>
-      </c>
-      <c r="K103" s="15">
-        <v>100</v>
-      </c>
-      <c r="L103" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="A104" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="B104" s="16"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="16">
-        <v>1</v>
-      </c>
-      <c r="E104" s="16"/>
-      <c r="F104" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H104" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="I104" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J104" s="15">
-        <v>99.44</v>
-      </c>
-      <c r="K104" s="15">
-        <v>100</v>
-      </c>
-      <c r="L104" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="A105" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="B105" s="16"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="16">
-        <v>1</v>
-      </c>
-      <c r="E105" s="16"/>
-      <c r="F105" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H105" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="I105" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J105" s="15">
-        <v>99.44</v>
-      </c>
-      <c r="K105" s="15">
-        <v>100</v>
-      </c>
-      <c r="L105" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="B106" s="16"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="16">
-        <v>2</v>
-      </c>
-      <c r="E106" s="16"/>
-      <c r="F106" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H106" s="16" t="s">
-        <v>522</v>
-      </c>
-      <c r="I106" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J106" s="15">
-        <v>99.72</v>
-      </c>
-      <c r="K106" s="15">
-        <v>100</v>
-      </c>
-      <c r="L106" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
-      <c r="A107" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="16">
-        <v>8</v>
-      </c>
-      <c r="E107" s="16">
-        <v>1</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="H107" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="I107" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="J107" s="15">
-        <v>99.72</v>
-      </c>
-      <c r="K107" s="15">
-        <v>100</v>
-      </c>
-      <c r="L107" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
-      <c r="A108" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="B108" s="16"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="16">
-        <v>4</v>
-      </c>
-      <c r="E108" s="16"/>
-      <c r="F108" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G108" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H108" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="I108" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="J108" s="15">
-        <v>99.44</v>
-      </c>
-      <c r="K108" s="15">
-        <v>100</v>
-      </c>
-      <c r="L108" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
-      <c r="A109" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="B109" s="16"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="16">
-        <v>4</v>
-      </c>
-      <c r="E109" s="16"/>
-      <c r="F109" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H109" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="I109" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="J109" s="15">
-        <v>99.44</v>
-      </c>
-      <c r="K109" s="15">
-        <v>100</v>
-      </c>
-      <c r="L109" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
-      <c r="A110" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="B110" s="16"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="16">
-        <v>1</v>
-      </c>
-      <c r="E110" s="16">
-        <v>4</v>
-      </c>
-      <c r="F110" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G110" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="H110" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="I110" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="J110" s="15">
-        <v>100</v>
-      </c>
-      <c r="K110" s="15">
-        <v>100</v>
-      </c>
-      <c r="L110" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
-      <c r="A111" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="B111" s="16"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="16">
-        <v>3</v>
-      </c>
-      <c r="E111" s="16"/>
-      <c r="F111" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G111" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="H111" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="I111" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J111" s="15">
-        <v>99.44</v>
-      </c>
-      <c r="K111" s="15">
-        <v>100</v>
-      </c>
-      <c r="L111" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="A112" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="B112" s="16"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="16">
-        <v>16</v>
-      </c>
-      <c r="E112" s="16"/>
-      <c r="F112" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G112" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H112" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="I112" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="J112" s="15">
-        <v>100</v>
-      </c>
-      <c r="K112" s="15">
-        <v>100</v>
-      </c>
-      <c r="L112" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="B113" s="16"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="16">
-        <v>3</v>
-      </c>
-      <c r="E113" s="16"/>
-      <c r="F113" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G113" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H113" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="I113" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="J113" s="15">
-        <v>99.72</v>
-      </c>
-      <c r="K113" s="15">
-        <v>100</v>
-      </c>
-      <c r="L113" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
-      <c r="A114" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="B114" s="16"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16">
-        <v>2</v>
-      </c>
-      <c r="F114" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H114" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="I114" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="J114" s="15">
-        <v>100</v>
-      </c>
-      <c r="K114" s="15">
-        <v>100</v>
-      </c>
-      <c r="L114" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="B115" s="16"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16">
-        <v>2</v>
-      </c>
-      <c r="F115" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="H115" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="I115" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="J115" s="15">
-        <v>99.75</v>
-      </c>
-      <c r="K115" s="15">
-        <v>100</v>
-      </c>
-      <c r="L115" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="A116" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="B116" s="16"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="16">
-        <v>2</v>
-      </c>
-      <c r="E116" s="16">
-        <v>2</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G116" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H116" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="I116" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="J116" s="15">
-        <v>100</v>
-      </c>
-      <c r="K116" s="15">
-        <v>100</v>
-      </c>
-      <c r="L116" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="A117" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="B117" s="16"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="16">
-        <v>33</v>
-      </c>
-      <c r="E117" s="16">
-        <v>3</v>
-      </c>
-      <c r="F117" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="H117" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="I117" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="J117" s="15">
-        <v>100</v>
-      </c>
-      <c r="K117" s="15">
-        <v>100</v>
-      </c>
-      <c r="L117" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="B118" s="16"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="16">
-        <v>1</v>
-      </c>
-      <c r="E118" s="16"/>
-      <c r="F118" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="G118" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H118" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="I118" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="J118" s="15">
-        <v>100</v>
-      </c>
-      <c r="K118" s="15">
-        <v>100</v>
-      </c>
-      <c r="L118" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
-      <c r="A119" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="B119" s="16"/>
-      <c r="C119" s="9">
-        <v>1</v>
-      </c>
-      <c r="D119" s="16">
-        <v>22</v>
-      </c>
-      <c r="E119" s="16">
-        <v>3</v>
-      </c>
-      <c r="F119" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="G119" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H119" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="I119" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="J119" s="15">
-        <v>99.7</v>
-      </c>
-      <c r="K119" s="15">
-        <v>100</v>
-      </c>
-      <c r="L119" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="A120" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="B120" s="16"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="16">
-        <v>1</v>
-      </c>
-      <c r="E120" s="16"/>
-      <c r="F120" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="G120" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H120" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="I120" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="J120" s="15">
-        <v>99.7</v>
-      </c>
-      <c r="K120" s="15">
-        <v>100</v>
-      </c>
-      <c r="L120" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
-      <c r="A121" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="B121" s="16"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="16">
-        <v>2</v>
-      </c>
-      <c r="E121" s="16"/>
-      <c r="F121" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="G121" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="H121" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="I121" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="J121" s="15">
-        <v>99.41</v>
-      </c>
-      <c r="K121" s="15">
-        <v>100</v>
-      </c>
-      <c r="L121" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="A122" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="B122" s="16"/>
-      <c r="C122" s="9">
-        <v>1</v>
-      </c>
-      <c r="D122" s="16">
-        <v>7</v>
-      </c>
-      <c r="E122" s="16"/>
-      <c r="F122" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G122" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H122" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="I122" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J122" s="15">
-        <v>100</v>
-      </c>
-      <c r="K122" s="15">
-        <v>100</v>
-      </c>
-      <c r="L122" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
-      <c r="A123" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B123" s="16"/>
-      <c r="C123" s="9">
-        <v>3</v>
-      </c>
-      <c r="D123" s="16">
-        <v>1</v>
-      </c>
-      <c r="E123" s="16">
-        <v>1</v>
-      </c>
-      <c r="F123" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="H123" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="I123" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="J123" s="15">
-        <v>100</v>
-      </c>
-      <c r="K123" s="15">
-        <v>100</v>
-      </c>
-      <c r="L123" s="15" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
-      <c r="A124" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B124" s="16"/>
-      <c r="C124" s="9">
-        <v>1</v>
-      </c>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="G124" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="H124" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="I124" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="J124" s="15">
-        <v>100</v>
-      </c>
-      <c r="K124" s="15">
-        <v>100</v>
-      </c>
-      <c r="L124" s="15" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="A125" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="B125" s="16"/>
-      <c r="C125" s="9">
-        <v>3</v>
-      </c>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="H125" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="I125" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="J125" s="15">
-        <v>99.62</v>
-      </c>
-      <c r="K125" s="15">
-        <v>100</v>
-      </c>
-      <c r="L125" s="15" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
-      <c r="A126" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="B126" s="16"/>
-      <c r="C126" s="9">
-        <v>1</v>
-      </c>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="H126" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="I126" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="J126" s="15">
-        <v>99.81</v>
-      </c>
-      <c r="K126" s="15">
-        <v>100</v>
-      </c>
-      <c r="L126" s="15" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
-      <c r="A127" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="B127" s="16"/>
-      <c r="C127" s="9">
-        <v>2</v>
-      </c>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="H127" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="I127" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="J127" s="15">
-        <v>99.66</v>
-      </c>
-      <c r="K127" s="15">
-        <v>100</v>
-      </c>
-      <c r="L127" s="15" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
-      <c r="A128" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="B128" s="16"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="16">
-        <v>2</v>
-      </c>
-      <c r="E128" s="16">
-        <v>4</v>
-      </c>
-      <c r="F128" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="H128" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="I128" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="J128" s="15">
-        <v>100</v>
-      </c>
-      <c r="K128" s="15">
-        <v>100</v>
-      </c>
-      <c r="L128" s="15" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
-      <c r="A129" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="B129" s="16"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16">
-        <v>4</v>
-      </c>
-      <c r="F129" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="G129" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H129" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="I129" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="J129" s="15">
-        <v>99.64</v>
-      </c>
-      <c r="K129" s="15">
-        <v>100</v>
-      </c>
-      <c r="L129" s="15" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="B130" s="16"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16">
-        <v>3</v>
-      </c>
-      <c r="F130" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="G130" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="H130" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="I130" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="J130" s="15">
-        <v>99.46</v>
-      </c>
-      <c r="K130" s="15">
-        <v>100</v>
-      </c>
-      <c r="L130" s="15" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
-      <c r="A131" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B131" s="16"/>
-      <c r="C131" s="9">
-        <v>4</v>
-      </c>
-      <c r="D131" s="16">
-        <v>4</v>
-      </c>
-      <c r="E131" s="16">
-        <v>2</v>
-      </c>
-      <c r="F131" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="G131" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="H131" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="I131" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="J131" s="15">
-        <v>100</v>
-      </c>
-      <c r="K131" s="15">
-        <v>100</v>
-      </c>
-      <c r="L131" s="15" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
-      <c r="A132" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B132" s="16"/>
-      <c r="C132" s="9">
-        <v>1</v>
-      </c>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="G132" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="H132" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="I132" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="J132" s="15">
-        <v>99.82</v>
-      </c>
-      <c r="K132" s="15">
-        <v>100</v>
-      </c>
-      <c r="L132" s="15" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
-      <c r="A133" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B133" s="16">
-        <v>1</v>
-      </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="H133" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="I133" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="J133" s="15">
-        <v>99.8</v>
-      </c>
-      <c r="K133" s="15">
-        <v>100</v>
-      </c>
-      <c r="L133" s="15" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
-      <c r="A134" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="B134" s="16"/>
-      <c r="C134" s="9">
-        <v>1</v>
-      </c>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="G134" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="H134" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="I134" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="J134" s="15">
-        <v>100</v>
-      </c>
-      <c r="K134" s="15">
-        <v>100</v>
-      </c>
-      <c r="L134" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
-      <c r="A135" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="B135" s="16"/>
-      <c r="C135" s="9">
-        <v>2</v>
-      </c>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="G135" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="H135" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="I135" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="J135" s="15">
-        <v>98.84</v>
-      </c>
-      <c r="K135" s="15">
-        <v>100</v>
-      </c>
-      <c r="L135" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
-      <c r="A136" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="B136" s="16"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="16">
-        <v>1</v>
-      </c>
-      <c r="E136" s="16">
-        <v>4</v>
-      </c>
-      <c r="F136" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="H136" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="I136" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="J136" s="15">
-        <v>99.77</v>
-      </c>
-      <c r="K136" s="15">
-        <v>99</v>
-      </c>
-      <c r="L136" s="15" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
-      <c r="A137" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B137" s="16"/>
-      <c r="C137" s="9">
-        <v>2</v>
-      </c>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="G137" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="H137" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="I137" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="J137" s="15">
-        <v>100</v>
-      </c>
-      <c r="K137" s="15">
-        <v>100</v>
-      </c>
-      <c r="L137" s="15" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
-      <c r="A138" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="B138" s="16">
-        <v>1</v>
-      </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="G138" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="H138" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="I138" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="J138" s="15">
-        <v>99.6</v>
-      </c>
-      <c r="K138" s="15">
-        <v>100</v>
-      </c>
-      <c r="L138" s="15" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
-      <c r="A139" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B139" s="16"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="16">
-        <v>1</v>
-      </c>
-      <c r="E139" s="16"/>
-      <c r="F139" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="G139" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="H139" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="I139" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="J139" s="15">
-        <v>100</v>
-      </c>
-      <c r="K139" s="15">
-        <v>100</v>
-      </c>
-      <c r="L139" s="15" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
-      <c r="A140" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="B140" s="16">
-        <v>29</v>
-      </c>
-      <c r="C140" s="9">
-        <v>265</v>
-      </c>
-      <c r="D140" s="16">
-        <v>507</v>
-      </c>
-      <c r="E140" s="16">
+      <c r="E140" s="11">
         <v>219</v>
       </c>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="18"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="15"/>
-      <c r="L140" s="15"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="10"/>
+      <c r="K140" s="10"/>
+      <c r="L140" s="10"/>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="15"/>
-      <c r="B141" s="16"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="18"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="15"/>
+      <c r="A141" s="10"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10163,8 +10196,9 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data/TABLE_S3_COM3.xlsx
+++ b/Data/TABLE_S3_COM3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80821784\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909462B3-065E-43F9-A3A1-F4FDCE7E18A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CED753-2EA3-45EE-9939-B25C868196D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -916,9 +916,6 @@
     <t>PP110784, NR_163686, NR_136117, NR_135927</t>
   </si>
   <si>
-    <t xml:space="preserve">Fungal sp. </t>
-  </si>
-  <si>
     <t>KY102355 type</t>
   </si>
   <si>
@@ -4413,6 +4410,9 @@
   </si>
   <si>
     <t>Subphylum; order; family (after Mycobank)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fungus sp. </t>
   </si>
 </sst>
 </file>
@@ -4656,6 +4656,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4663,9 +4666,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5465,8 +5465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L141" sqref="L141"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
@@ -5483,48 +5483,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.95" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
+      <c r="A1" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="99" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>0</v>
@@ -5532,13 +5532,13 @@
       <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>609</v>
+      <c r="L2" s="24" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.95" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" s="6">
         <v>3</v>
@@ -5559,7 +5559,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>295</v>
@@ -5571,12 +5571,12 @@
         <v>100</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.2" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -5588,10 +5588,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J4" s="16">
         <v>100</v>
@@ -5600,7 +5600,7 @@
         <v>100</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5617,7 +5617,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>10</v>
@@ -5629,12 +5629,12 @@
         <v>100</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="6">
@@ -5647,10 +5647,10 @@
         <v>12</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J6" s="16">
         <v>100</v>
@@ -5659,12 +5659,12 @@
         <v>100</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="6">
@@ -5677,10 +5677,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J7" s="16">
         <v>100</v>
@@ -5689,7 +5689,7 @@
         <v>100</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5712,7 +5712,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>14</v>
@@ -5724,12 +5724,12 @@
         <v>75</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B9" s="6">
         <v>2</v>
@@ -5742,7 +5742,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>18</v>
@@ -5754,7 +5754,7 @@
         <v>100</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5772,7 +5772,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>16</v>
@@ -5784,12 +5784,12 @@
         <v>100</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="6">
@@ -5802,7 +5802,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>20</v>
@@ -5814,12 +5814,12 @@
         <v>100</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="16" customFormat="1">
       <c r="A12" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
@@ -5834,10 +5834,10 @@
         <v>4</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J12" s="16">
         <v>100</v>
@@ -5846,12 +5846,12 @@
         <v>100</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="6">
@@ -5867,7 +5867,7 @@
         <v>21</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>22</v>
@@ -5879,12 +5879,12 @@
         <v>100</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="6">
@@ -5897,7 +5897,7 @@
         <v>23</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>24</v>
@@ -5909,7 +5909,7 @@
         <v>100</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5927,7 +5927,7 @@
         <v>25</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>26</v>
@@ -5939,12 +5939,12 @@
         <v>100</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -5965,7 +5965,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>30</v>
@@ -5977,12 +5977,12 @@
         <v>100</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="34.950000000000003" customHeight="1">
       <c r="A17" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
@@ -5994,10 +5994,10 @@
         <v>28</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J17" s="16">
         <v>100</v>
@@ -6006,12 +6006,12 @@
         <v>100</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="34.200000000000003" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C18" s="12">
         <v>2</v>
@@ -6026,10 +6026,10 @@
         <v>27</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J18" s="16">
         <v>100</v>
@@ -6038,12 +6038,12 @@
         <v>100</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -6056,7 +6056,7 @@
         <v>31</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>32</v>
@@ -6068,7 +6068,7 @@
         <v>100</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -6088,10 +6088,10 @@
         <v>33</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J20" s="16">
         <v>100</v>
@@ -6100,7 +6100,7 @@
         <v>100</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -6117,7 +6117,7 @@
         <v>34</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>35</v>
@@ -6129,12 +6129,12 @@
         <v>100</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -6147,10 +6147,10 @@
         <v>38</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J22" s="16">
         <v>100</v>
@@ -6159,12 +6159,12 @@
         <v>100</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -6177,7 +6177,7 @@
         <v>36</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>37</v>
@@ -6189,7 +6189,7 @@
         <v>100</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -6207,10 +6207,10 @@
         <v>39</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J24" s="16">
         <v>100</v>
@@ -6219,7 +6219,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="16" customFormat="1">
@@ -6239,7 +6239,7 @@
         <v>40</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>41</v>
@@ -6251,7 +6251,7 @@
         <v>100</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -6268,7 +6268,7 @@
         <v>43</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>44</v>
@@ -6280,12 +6280,12 @@
         <v>100</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C27" s="12">
         <v>4</v>
@@ -6300,10 +6300,10 @@
         <v>42</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J27" s="16">
         <v>100</v>
@@ -6312,12 +6312,12 @@
         <v>100</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.95" customHeight="1">
       <c r="A28" s="16" t="s">
-        <v>296</v>
+        <v>609</v>
       </c>
       <c r="C28" s="12">
         <v>7</v>
@@ -6331,18 +6331,18 @@
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.95" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="6">
@@ -6355,10 +6355,10 @@
         <v>48</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J29" s="16">
         <v>100</v>
@@ -6367,12 +6367,12 @@
         <v>100</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="34.200000000000003" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -6384,10 +6384,10 @@
         <v>45</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J30" s="16">
         <v>100</v>
@@ -6396,7 +6396,7 @@
         <v>100</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -6413,7 +6413,7 @@
         <v>46</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>47</v>
@@ -6425,12 +6425,12 @@
         <v>100</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="6">
@@ -6446,7 +6446,7 @@
         <v>52</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>53</v>
@@ -6458,12 +6458,12 @@
         <v>100</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="6">
@@ -6476,7 +6476,7 @@
         <v>54</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>55</v>
@@ -6488,12 +6488,12 @@
         <v>100</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -6508,7 +6508,7 @@
         <v>56</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>57</v>
@@ -6520,12 +6520,12 @@
         <v>100</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C35" s="11"/>
       <c r="E35" s="6">
@@ -6538,7 +6538,7 @@
         <v>58</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>59</v>
@@ -6550,12 +6550,12 @@
         <v>100</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="6">
@@ -6571,7 +6571,7 @@
         <v>51</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>50</v>
@@ -6583,12 +6583,12 @@
         <v>100</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="6">
@@ -6604,7 +6604,7 @@
         <v>49</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>50</v>
@@ -6616,12 +6616,12 @@
         <v>100</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C38" s="12">
         <v>6</v>
@@ -6639,7 +6639,7 @@
         <v>60</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I38" s="19" t="s">
         <v>61</v>
@@ -6651,12 +6651,12 @@
         <v>100</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C39" s="12">
         <v>2</v>
@@ -6668,7 +6668,7 @@
         <v>62</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I39" s="19" t="s">
         <v>61</v>
@@ -6680,12 +6680,12 @@
         <v>100</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C40" s="12">
         <v>4</v>
@@ -6700,7 +6700,7 @@
         <v>63</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>61</v>
@@ -6712,12 +6712,12 @@
         <v>100</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C41" s="12">
         <v>13</v>
@@ -6735,7 +6735,7 @@
         <v>64</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>61</v>
@@ -6747,12 +6747,12 @@
         <v>100</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -6770,7 +6770,7 @@
         <v>65</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I42" s="19" t="s">
         <v>61</v>
@@ -6782,12 +6782,12 @@
         <v>100</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C43" s="12">
         <v>6</v>
@@ -6805,7 +6805,7 @@
         <v>66</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>61</v>
@@ -6817,12 +6817,12 @@
         <v>100</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C44" s="12">
         <v>2</v>
@@ -6840,7 +6840,7 @@
         <v>67</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>61</v>
@@ -6852,12 +6852,12 @@
         <v>100</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="16" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C45" s="12">
         <v>9</v>
@@ -6875,7 +6875,7 @@
         <v>68</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I45" s="19" t="s">
         <v>61</v>
@@ -6887,12 +6887,12 @@
         <v>100</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="16" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C46" s="11"/>
       <c r="E46" s="6">
@@ -6905,7 +6905,7 @@
         <v>69</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I46" s="19" t="s">
         <v>61</v>
@@ -6917,12 +6917,12 @@
         <v>100</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="6">
@@ -6935,7 +6935,7 @@
         <v>70</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I47" s="19" t="s">
         <v>61</v>
@@ -6947,12 +6947,12 @@
         <v>100</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C48" s="12">
         <v>2</v>
@@ -6970,7 +6970,7 @@
         <v>71</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I48" s="19" t="s">
         <v>61</v>
@@ -6982,12 +6982,12 @@
         <v>100</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="6">
@@ -7003,7 +7003,7 @@
         <v>72</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I49" s="19" t="s">
         <v>61</v>
@@ -7015,12 +7015,12 @@
         <v>100</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="6">
@@ -7033,7 +7033,7 @@
         <v>73</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I50" s="19" t="s">
         <v>61</v>
@@ -7045,12 +7045,12 @@
         <v>100</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C51" s="12">
         <v>4</v>
@@ -7068,7 +7068,7 @@
         <v>74</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I51" s="19" t="s">
         <v>61</v>
@@ -7080,12 +7080,12 @@
         <v>100</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="6">
@@ -7101,7 +7101,7 @@
         <v>75</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I52" s="19" t="s">
         <v>61</v>
@@ -7113,12 +7113,12 @@
         <v>100</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="6">
@@ -7131,7 +7131,7 @@
         <v>76</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I53" s="19" t="s">
         <v>61</v>
@@ -7143,12 +7143,12 @@
         <v>100</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="6">
@@ -7161,7 +7161,7 @@
         <v>77</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I54" s="19" t="s">
         <v>61</v>
@@ -7173,12 +7173,12 @@
         <v>100</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C55" s="11"/>
       <c r="E55" s="6">
@@ -7191,7 +7191,7 @@
         <v>78</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I55" s="19" t="s">
         <v>61</v>
@@ -7203,12 +7203,12 @@
         <v>96</v>
       </c>
       <c r="L55" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B56" s="6">
         <v>1</v>
@@ -7221,7 +7221,7 @@
         <v>79</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I56" s="19" t="s">
         <v>80</v>
@@ -7233,7 +7233,7 @@
         <v>100</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -7253,7 +7253,7 @@
         <v>81</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I57" s="19" t="s">
         <v>82</v>
@@ -7265,25 +7265,25 @@
         <v>100</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B58" s="6">
         <v>2</v>
       </c>
       <c r="C58" s="11"/>
       <c r="F58" s="16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I58" s="19" t="s">
         <v>8</v>
@@ -7295,12 +7295,12 @@
         <v>100</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C59" s="11"/>
       <c r="E59" s="6">
@@ -7313,7 +7313,7 @@
         <v>83</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I59" s="19" t="s">
         <v>84</v>
@@ -7325,12 +7325,12 @@
         <v>100</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C60" s="12">
         <v>1</v>
@@ -7340,13 +7340,13 @@
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G60" s="16" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I60" s="19" t="s">
         <v>98</v>
@@ -7358,12 +7358,12 @@
         <v>100</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="6">
@@ -7371,13 +7371,13 @@
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G61" s="16" t="s">
         <v>99</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I61" s="19" t="s">
         <v>98</v>
@@ -7389,12 +7389,12 @@
         <v>100</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="6">
@@ -7408,7 +7408,7 @@
         <v>85</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I62" s="19" t="s">
         <v>86</v>
@@ -7420,12 +7420,12 @@
         <v>97</v>
       </c>
       <c r="L62" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C63" s="12">
         <v>1</v>
@@ -7438,7 +7438,7 @@
         <v>102</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I63" s="19" t="s">
         <v>95</v>
@@ -7450,12 +7450,12 @@
         <v>99</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C64" s="12">
         <v>3</v>
@@ -7471,7 +7471,7 @@
         <v>94</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I64" s="19" t="s">
         <v>95</v>
@@ -7483,12 +7483,12 @@
         <v>98</v>
       </c>
       <c r="L64" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C65" s="12">
         <v>2</v>
@@ -7501,7 +7501,7 @@
         <v>87</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I65" s="19" t="s">
         <v>88</v>
@@ -7513,12 +7513,12 @@
         <v>98</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C66" s="12">
         <v>10</v>
@@ -7534,7 +7534,7 @@
         <v>89</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I66" s="19" t="s">
         <v>88</v>
@@ -7546,12 +7546,12 @@
         <v>98</v>
       </c>
       <c r="L66" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C67" s="12">
         <v>1</v>
@@ -7567,7 +7567,7 @@
         <v>96</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I67" s="19" t="s">
         <v>88</v>
@@ -7579,12 +7579,12 @@
         <v>98</v>
       </c>
       <c r="L67" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C68" s="12">
         <v>2</v>
@@ -7600,7 +7600,7 @@
         <v>100</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I68" s="19" t="s">
         <v>88</v>
@@ -7612,12 +7612,12 @@
         <v>98</v>
       </c>
       <c r="L68" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C69" s="12">
         <v>1</v>
@@ -7630,7 +7630,7 @@
         <v>90</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I69" s="19" t="s">
         <v>91</v>
@@ -7642,12 +7642,12 @@
         <v>98</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C70" s="12">
         <v>2</v>
@@ -7663,7 +7663,7 @@
         <v>92</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I70" s="19" t="s">
         <v>93</v>
@@ -7675,12 +7675,12 @@
         <v>98</v>
       </c>
       <c r="L70" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="6">
@@ -7694,7 +7694,7 @@
         <v>101</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I71" s="19" t="s">
         <v>93</v>
@@ -7706,7 +7706,7 @@
         <v>100</v>
       </c>
       <c r="L71" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -7727,7 +7727,7 @@
         <v>103</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I72" s="19" t="s">
         <v>104</v>
@@ -7739,12 +7739,12 @@
         <v>100</v>
       </c>
       <c r="L72" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="6">
@@ -7760,7 +7760,7 @@
         <v>107</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I73" s="19" t="s">
         <v>108</v>
@@ -7772,12 +7772,12 @@
         <v>100</v>
       </c>
       <c r="L73" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="6">
@@ -7793,7 +7793,7 @@
         <v>105</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I74" s="19" t="s">
         <v>106</v>
@@ -7805,7 +7805,7 @@
         <v>100</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -7823,7 +7823,7 @@
         <v>109</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I75" s="19" t="s">
         <v>110</v>
@@ -7835,7 +7835,7 @@
         <v>100</v>
       </c>
       <c r="L75" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -7853,7 +7853,7 @@
         <v>111</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I76" s="19" t="s">
         <v>112</v>
@@ -7865,7 +7865,7 @@
         <v>100</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -7883,7 +7883,7 @@
         <v>115</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I77" s="19" t="s">
         <v>116</v>
@@ -7895,12 +7895,12 @@
         <v>100</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B78" s="8">
         <v>1</v>
@@ -7915,13 +7915,13 @@
         <v>4</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>118</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I78" s="19" t="s">
         <v>119</v>
@@ -7933,7 +7933,7 @@
         <v>100</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -7950,7 +7950,7 @@
         <v>120</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I79" s="19" t="s">
         <v>121</v>
@@ -7962,7 +7962,7 @@
         <v>100</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -7980,7 +7980,7 @@
         <v>122</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I80" s="19" t="s">
         <v>123</v>
@@ -7992,12 +7992,12 @@
         <v>100</v>
       </c>
       <c r="L80" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:40" ht="31.2">
       <c r="A81" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="6">
@@ -8013,10 +8013,10 @@
         <v>117</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J81" s="16">
         <v>100</v>
@@ -8025,12 +8025,12 @@
         <v>100</v>
       </c>
       <c r="L81" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82" spans="1:40">
       <c r="A82" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C82" s="12">
         <v>1</v>
@@ -8042,7 +8042,7 @@
         <v>124</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I82" s="19" t="s">
         <v>125</v>
@@ -8054,12 +8054,12 @@
         <v>100</v>
       </c>
       <c r="L82" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:40">
       <c r="A83" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B83" s="6">
         <v>1</v>
@@ -8072,10 +8072,10 @@
         <v>113</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J83" s="16">
         <v>100</v>
@@ -8084,7 +8084,7 @@
         <v>114</v>
       </c>
       <c r="L83" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:40">
@@ -8096,13 +8096,13 @@
         <v>1</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G84" s="16" t="s">
         <v>126</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I84" s="19" t="s">
         <v>127</v>
@@ -8114,12 +8114,12 @@
         <v>100</v>
       </c>
       <c r="L84" s="23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="85" spans="1:40" s="14" customFormat="1">
       <c r="A85" s="20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="11"/>
@@ -8130,13 +8130,13 @@
         <v>3</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>2</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I85" s="19" t="s">
         <v>3</v>
@@ -8148,7 +8148,7 @@
         <v>100</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M85" s="16"/>
       <c r="N85" s="16"/>
@@ -8181,7 +8181,7 @@
     </row>
     <row r="86" spans="1:40">
       <c r="A86" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="6">
@@ -8197,7 +8197,7 @@
         <v>174</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I86" s="19" t="s">
         <v>175</v>
@@ -8209,7 +8209,7 @@
         <v>100</v>
       </c>
       <c r="L86" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="87" spans="1:40">
@@ -8232,7 +8232,7 @@
         <v>162</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I87" s="19" t="s">
         <v>163</v>
@@ -8244,12 +8244,12 @@
         <v>100</v>
       </c>
       <c r="L87" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="88" spans="1:40">
       <c r="A88" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="6">
@@ -8262,7 +8262,7 @@
         <v>154</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I88" s="19" t="s">
         <v>155</v>
@@ -8274,12 +8274,12 @@
         <v>100</v>
       </c>
       <c r="L88" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="89" spans="1:40">
       <c r="A89" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C89" s="12">
         <v>3</v>
@@ -8297,7 +8297,7 @@
         <v>173</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I89" s="19" t="s">
         <v>163</v>
@@ -8309,7 +8309,7 @@
         <v>100</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="90" spans="1:40">
@@ -8332,7 +8332,7 @@
         <v>166</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I90" s="19" t="s">
         <v>165</v>
@@ -8344,12 +8344,12 @@
         <v>95</v>
       </c>
       <c r="L90" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="91" spans="1:40">
       <c r="A91" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C91" s="12">
         <v>5</v>
@@ -8367,7 +8367,7 @@
         <v>164</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I91" s="19" t="s">
         <v>165</v>
@@ -8379,12 +8379,12 @@
         <v>95</v>
       </c>
       <c r="L91" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="92" spans="1:40">
       <c r="A92" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C92" s="11"/>
       <c r="E92" s="6">
@@ -8397,7 +8397,7 @@
         <v>167</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I92" s="19" t="s">
         <v>165</v>
@@ -8409,12 +8409,12 @@
         <v>95</v>
       </c>
       <c r="L92" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="93" spans="1:40">
       <c r="A93" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C93" s="12">
         <v>1</v>
@@ -8426,7 +8426,7 @@
         <v>168</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I93" s="19" t="s">
         <v>165</v>
@@ -8438,12 +8438,12 @@
         <v>95</v>
       </c>
       <c r="L93" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="94" spans="1:40">
       <c r="A94" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C94" s="11"/>
       <c r="E94" s="6">
@@ -8456,7 +8456,7 @@
         <v>169</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I94" s="19" t="s">
         <v>165</v>
@@ -8468,12 +8468,12 @@
         <v>95</v>
       </c>
       <c r="L94" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="95" spans="1:40">
       <c r="A95" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="6">
@@ -8486,7 +8486,7 @@
         <v>170</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I95" s="19" t="s">
         <v>165</v>
@@ -8498,12 +8498,12 @@
         <v>95</v>
       </c>
       <c r="L95" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="96" spans="1:40">
       <c r="A96" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="6">
@@ -8519,7 +8519,7 @@
         <v>147</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I96" s="19" t="s">
         <v>148</v>
@@ -8531,12 +8531,12 @@
         <v>100</v>
       </c>
       <c r="L96" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C97" s="12">
         <v>1</v>
@@ -8551,7 +8551,7 @@
         <v>176</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I97" s="19" t="s">
         <v>131</v>
@@ -8563,12 +8563,12 @@
         <v>100</v>
       </c>
       <c r="L97" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="6">
@@ -8581,7 +8581,7 @@
         <v>184</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I98" s="19" t="s">
         <v>131</v>
@@ -8593,12 +8593,12 @@
         <v>100</v>
       </c>
       <c r="L98" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="6">
@@ -8611,7 +8611,7 @@
         <v>179</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I99" s="19" t="s">
         <v>131</v>
@@ -8623,12 +8623,12 @@
         <v>100</v>
       </c>
       <c r="L99" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="6">
@@ -8641,7 +8641,7 @@
         <v>130</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I100" s="19" t="s">
         <v>131</v>
@@ -8653,12 +8653,12 @@
         <v>100</v>
       </c>
       <c r="L100" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="6">
@@ -8671,7 +8671,7 @@
         <v>177</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I101" s="19" t="s">
         <v>178</v>
@@ -8683,12 +8683,12 @@
         <v>100</v>
       </c>
       <c r="L101" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="6">
@@ -8704,7 +8704,7 @@
         <v>132</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I102" s="19" t="s">
         <v>133</v>
@@ -8716,12 +8716,12 @@
         <v>100</v>
       </c>
       <c r="L102" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="6">
@@ -8734,7 +8734,7 @@
         <v>137</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I103" s="19" t="s">
         <v>135</v>
@@ -8746,12 +8746,12 @@
         <v>100</v>
       </c>
       <c r="L103" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="6">
@@ -8764,7 +8764,7 @@
         <v>134</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I104" s="19" t="s">
         <v>135</v>
@@ -8776,12 +8776,12 @@
         <v>100</v>
       </c>
       <c r="L104" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="6">
@@ -8794,7 +8794,7 @@
         <v>136</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I105" s="19" t="s">
         <v>135</v>
@@ -8806,12 +8806,12 @@
         <v>100</v>
       </c>
       <c r="L105" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="6">
@@ -8824,7 +8824,7 @@
         <v>138</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I106" s="19" t="s">
         <v>139</v>
@@ -8836,12 +8836,12 @@
         <v>100</v>
       </c>
       <c r="L106" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="6">
@@ -8857,7 +8857,7 @@
         <v>144</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I107" s="19" t="s">
         <v>143</v>
@@ -8869,12 +8869,12 @@
         <v>100</v>
       </c>
       <c r="L107" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="6">
@@ -8887,7 +8887,7 @@
         <v>140</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I108" s="19" t="s">
         <v>141</v>
@@ -8899,12 +8899,12 @@
         <v>100</v>
       </c>
       <c r="L108" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C109" s="11"/>
       <c r="D109" s="6">
@@ -8917,7 +8917,7 @@
         <v>142</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I109" s="19" t="s">
         <v>143</v>
@@ -8929,12 +8929,12 @@
         <v>100</v>
       </c>
       <c r="L109" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="6">
@@ -8950,7 +8950,7 @@
         <v>145</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I110" s="19" t="s">
         <v>146</v>
@@ -8962,12 +8962,12 @@
         <v>100</v>
       </c>
       <c r="L110" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="6">
@@ -8980,7 +8980,7 @@
         <v>149</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I111" s="19" t="s">
         <v>150</v>
@@ -8992,12 +8992,12 @@
         <v>100</v>
       </c>
       <c r="L111" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="6">
@@ -9010,7 +9010,7 @@
         <v>153</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I112" s="19" t="s">
         <v>152</v>
@@ -9022,12 +9022,12 @@
         <v>100</v>
       </c>
       <c r="L112" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="6">
@@ -9040,7 +9040,7 @@
         <v>151</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I113" s="19" t="s">
         <v>152</v>
@@ -9052,12 +9052,12 @@
         <v>100</v>
       </c>
       <c r="L113" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C114" s="11"/>
       <c r="E114" s="6">
@@ -9070,7 +9070,7 @@
         <v>171</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I114" s="19" t="s">
         <v>172</v>
@@ -9082,12 +9082,12 @@
         <v>100</v>
       </c>
       <c r="L114" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C115" s="11"/>
       <c r="E115" s="6">
@@ -9100,7 +9100,7 @@
         <v>180</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I115" s="19" t="s">
         <v>181</v>
@@ -9112,12 +9112,12 @@
         <v>100</v>
       </c>
       <c r="L115" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="6">
@@ -9133,7 +9133,7 @@
         <v>182</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I116" s="19" t="s">
         <v>183</v>
@@ -9145,7 +9145,7 @@
         <v>100</v>
       </c>
       <c r="L116" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -9166,7 +9166,7 @@
         <v>156</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I117" s="19" t="s">
         <v>157</v>
@@ -9178,12 +9178,12 @@
         <v>100</v>
       </c>
       <c r="L117" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="6">
@@ -9196,7 +9196,7 @@
         <v>161</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I118" s="19" t="s">
         <v>157</v>
@@ -9208,12 +9208,12 @@
         <v>100</v>
       </c>
       <c r="L118" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C119" s="12">
         <v>1</v>
@@ -9231,7 +9231,7 @@
         <v>158</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I119" s="19" t="s">
         <v>157</v>
@@ -9243,12 +9243,12 @@
         <v>100</v>
       </c>
       <c r="L119" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="6">
@@ -9261,7 +9261,7 @@
         <v>159</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I120" s="19" t="s">
         <v>157</v>
@@ -9273,12 +9273,12 @@
         <v>100</v>
       </c>
       <c r="L120" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C121" s="11"/>
       <c r="D121" s="6">
@@ -9291,7 +9291,7 @@
         <v>160</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I121" s="19" t="s">
         <v>157</v>
@@ -9303,7 +9303,7 @@
         <v>100</v>
       </c>
       <c r="L121" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -9323,7 +9323,7 @@
         <v>128</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I122" s="19" t="s">
         <v>129</v>
@@ -9335,7 +9335,7 @@
         <v>100</v>
       </c>
       <c r="L122" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -9358,7 +9358,7 @@
         <v>185</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I123" s="19" t="s">
         <v>186</v>
@@ -9370,7 +9370,7 @@
         <v>100</v>
       </c>
       <c r="L123" s="23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -9387,7 +9387,7 @@
         <v>187</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I124" s="19" t="s">
         <v>188</v>
@@ -9399,12 +9399,12 @@
         <v>100</v>
       </c>
       <c r="L124" s="23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C125" s="12">
         <v>3</v>
@@ -9416,7 +9416,7 @@
         <v>189</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I125" s="19" t="s">
         <v>190</v>
@@ -9428,12 +9428,12 @@
         <v>100</v>
       </c>
       <c r="L125" s="23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C126" s="12">
         <v>1</v>
@@ -9445,7 +9445,7 @@
         <v>191</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I126" s="19" t="s">
         <v>192</v>
@@ -9457,24 +9457,24 @@
         <v>100</v>
       </c>
       <c r="L126" s="23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C127" s="12">
         <v>2</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G127" s="16" t="s">
         <v>193</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I127" s="19" t="s">
         <v>194</v>
@@ -9486,7 +9486,7 @@
         <v>100</v>
       </c>
       <c r="L127" s="23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -9507,7 +9507,7 @@
         <v>197</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I128" s="19" t="s">
         <v>196</v>
@@ -9519,12 +9519,12 @@
         <v>100</v>
       </c>
       <c r="L128" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C129" s="11"/>
       <c r="E129" s="6">
@@ -9537,7 +9537,7 @@
         <v>198</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I129" s="19" t="s">
         <v>196</v>
@@ -9549,12 +9549,12 @@
         <v>100</v>
       </c>
       <c r="L129" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C130" s="11"/>
       <c r="E130" s="6">
@@ -9567,7 +9567,7 @@
         <v>195</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I130" s="19" t="s">
         <v>196</v>
@@ -9579,7 +9579,7 @@
         <v>100</v>
       </c>
       <c r="L130" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -9602,7 +9602,7 @@
         <v>199</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I131" s="19" t="s">
         <v>200</v>
@@ -9614,12 +9614,12 @@
         <v>100</v>
       </c>
       <c r="L131" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C132" s="12">
         <v>1</v>
@@ -9631,7 +9631,7 @@
         <v>201</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I132" s="19" t="s">
         <v>202</v>
@@ -9643,7 +9643,7 @@
         <v>100</v>
       </c>
       <c r="L132" s="23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -9661,7 +9661,7 @@
         <v>203</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I133" s="19" t="s">
         <v>204</v>
@@ -9673,24 +9673,24 @@
         <v>100</v>
       </c>
       <c r="L133" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="C134" s="12">
+        <v>1</v>
+      </c>
+      <c r="F134" s="16" t="s">
         <v>563</v>
-      </c>
-      <c r="C134" s="12">
-        <v>1</v>
-      </c>
-      <c r="F134" s="16" t="s">
-        <v>564</v>
       </c>
       <c r="G134" s="16" t="s">
         <v>205</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I134" s="19" t="s">
         <v>206</v>
@@ -9702,12 +9702,12 @@
         <v>100</v>
       </c>
       <c r="L134" s="23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C135" s="12">
         <v>2</v>
@@ -9719,7 +9719,7 @@
         <v>207</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I135" s="19" t="s">
         <v>208</v>
@@ -9731,12 +9731,12 @@
         <v>100</v>
       </c>
       <c r="L135" s="23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="6">
@@ -9752,7 +9752,7 @@
         <v>209</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I136" s="19" t="s">
         <v>210</v>
@@ -9764,7 +9764,7 @@
         <v>99</v>
       </c>
       <c r="L136" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -9781,7 +9781,7 @@
         <v>211</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I137" s="19" t="s">
         <v>212</v>
@@ -9793,12 +9793,12 @@
         <v>100</v>
       </c>
       <c r="L137" s="23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B138" s="6">
         <v>1</v>
@@ -9811,7 +9811,7 @@
         <v>213</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I138" s="19" t="s">
         <v>214</v>
@@ -9823,7 +9823,7 @@
         <v>100</v>
       </c>
       <c r="L138" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -9841,7 +9841,7 @@
         <v>215</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I139" s="19" t="s">
         <v>216</v>
@@ -9853,12 +9853,12 @@
         <v>100</v>
       </c>
       <c r="L139" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B140" s="17">
         <v>29</v>
